--- a/conf/rush_rules_v3.xlsx
+++ b/conf/rush_rules_v3.xlsx
@@ -613,10 +613,10 @@
     <t xml:space="preserve">\n\s+(\d\d.\s+\C</t>
   </si>
   <si>
-    <t xml:space="preserve">\n\d.)\s+(\C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\n\d\d.)\s+(\C</t>
+    <t xml:space="preserve">\n\d.\)\s+(\C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n\d\d.\)\s+(\C</t>
   </si>
   <si>
     <t xml:space="preserve">\c:\n+(\a</t>
@@ -730,7 +730,7 @@
     <t xml:space="preserve">\s\s(\d\)?\s+\C</t>
   </si>
   <si>
-    <t xml:space="preserve">\c)\w+\d\)\s+\d+\s+(\c</t>
+    <t xml:space="preserve">\c\)\w+\d\)\s+\d+\s+(\c</t>
   </si>
   <si>
     <t xml:space="preserve">\c\w+(\d\)\C</t>
@@ -2597,7 +2597,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2619,139 +2619,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2759,23 +2636,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2799,54 +2661,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2854,90 +2668,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2948,8 +2686,8 @@
   </sheetPr>
   <dimension ref="A1:D955"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A924" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42:D955"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A236" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A256" activeCellId="0" sqref="A256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2957,7 +2695,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/conf/rush_rules_v3.xlsx
+++ b/conf/rush_rules_v3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="853">
   <si>
     <t xml:space="preserve">#/*******************************************************************************</t>
   </si>
@@ -937,16 +937,7 @@
     <t xml:space="preserve">\a\s+\n\n</t>
   </si>
   <si>
-    <t xml:space="preserve">\a\n\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\s+\n\e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\a\n\n\e</t>
+    <t xml:space="preserve">\a\w+\e</t>
   </si>
   <si>
     <t xml:space="preserve">\c)********</t>
@@ -2684,10 +2675,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D955"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A236" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A256" activeCellId="0" sqref="A256"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A316" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A334" activeCellId="0" sqref="A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7741,23 +7732,14 @@
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="B379" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C379" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D379" s="0" t="str">
         <f aca="false">IF(B379="","",IF(MOD(B379,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>2</v>
@@ -7772,7 +7754,7 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>2</v>
@@ -7786,9 +7768,18 @@
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="B382" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D382" s="0" t="str">
         <f aca="false">IF(B382="","",IF(MOD(B382,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8152,54 +8143,54 @@
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="B407" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C407" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D407" s="0" t="str">
         <f aca="false">IF(B407="","",IF(MOD(B407,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B408" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C408" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D408" s="0" t="str">
         <f aca="false">IF(B408="","",IF(MOD(B408,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B409" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C409" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D409" s="0" t="str">
         <f aca="false">IF(B409="","",IF(MOD(B409,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B410" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D410" s="0" t="str">
         <f aca="false">IF(B410="","",IF(MOD(B410,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8323,23 +8314,14 @@
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="B419" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C419" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D419" s="0" t="str">
         <f aca="false">IF(B419="","",IF(MOD(B419,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B420" s="0" t="n">
         <v>3</v>
@@ -8354,7 +8336,7 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B421" s="0" t="n">
         <v>3</v>
@@ -8368,14 +8350,23 @@
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B422" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C422" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D422" s="0" t="str">
         <f aca="false">IF(B422="","",IF(MOD(B422,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B423" s="0" t="n">
         <v>3</v>
@@ -8390,7 +8381,7 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B424" s="0" t="n">
         <v>3</v>
@@ -8405,7 +8396,7 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B425" s="0" t="n">
         <v>3</v>
@@ -8420,7 +8411,7 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B426" s="0" t="n">
         <v>3</v>
@@ -8434,18 +8425,9 @@
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B427" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C427" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D427" s="0" t="str">
         <f aca="false">IF(B427="","",IF(MOD(B427,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8465,7 +8447,7 @@
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B429" s="0" t="n">
         <v>3</v>
@@ -8479,9 +8461,18 @@
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="B430" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C430" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D430" s="0" t="str">
         <f aca="false">IF(B430="","",IF(MOD(B430,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8501,7 +8492,7 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B432" s="0" t="n">
         <v>3</v>
@@ -8516,103 +8507,94 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B433" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C433" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D433" s="0" t="str">
         <f aca="false">IF(B433="","",IF(MOD(B433,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B434" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D434" s="0" t="str">
         <f aca="false">IF(B434="","",IF(MOD(B434,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="B435" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C435" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D435" s="0" t="str">
         <f aca="false">IF(B435="","",IF(MOD(B435,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B436" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C436" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D436" s="0" t="str">
         <f aca="false">IF(B436="","",IF(MOD(B436,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B437" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C437" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D437" s="0" t="str">
         <f aca="false">IF(B437="","",IF(MOD(B437,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="B438" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C438" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D438" s="0" t="str">
         <f aca="false">IF(B438="","",IF(MOD(B438,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="B439" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C439" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D439" s="0" t="str">
         <f aca="false">IF(B439="","",IF(MOD(B439,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B440" s="0" t="n">
         <v>3</v>
@@ -8627,7 +8609,7 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B441" s="0" t="n">
         <v>3</v>
@@ -8641,14 +8623,23 @@
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B442" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C442" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D442" s="0" t="str">
         <f aca="false">IF(B442="","",IF(MOD(B442,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B443" s="0" t="n">
         <v>3</v>
@@ -8663,7 +8654,7 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B444" s="0" t="n">
         <v>3</v>
@@ -8678,7 +8669,7 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B445" s="0" t="n">
         <v>3</v>
@@ -8692,23 +8683,14 @@
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="B446" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C446" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D446" s="0" t="str">
         <f aca="false">IF(B446="","",IF(MOD(B446,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B447" s="0" t="n">
         <v>3</v>
@@ -8737,9 +8719,18 @@
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B449" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C449" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D449" s="0" t="str">
         <f aca="false">IF(B449="","",IF(MOD(B449,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8968,38 +8959,23 @@
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="B465" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C465" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D465" s="0" t="str">
         <f aca="false">IF(B465="","",IF(MOD(B465,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="B466" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C466" s="0" t="s">
-        <v>203</v>
+        <v>425</v>
       </c>
       <c r="D466" s="0" t="str">
         <f aca="false">IF(B466="","",IF(MOD(B466,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B467" s="0" t="n">
         <v>3</v>
@@ -9013,18 +8989,33 @@
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="B468" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C468" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D468" s="0" t="str">
         <f aca="false">IF(B468="","",IF(MOD(B468,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
         <v>428</v>
       </c>
+      <c r="B469" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C469" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D469" s="0" t="str">
         <f aca="false">IF(B469="","",IF(MOD(B469,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9046,15 +9037,9 @@
       <c r="A471" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="B471" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C471" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D471" s="0" t="str">
         <f aca="false">IF(B471="","",IF(MOD(B471,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9091,9 +9076,15 @@
       <c r="A474" s="0" t="s">
         <v>433</v>
       </c>
+      <c r="B474" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C474" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D474" s="0" t="str">
         <f aca="false">IF(B474="","",IF(MOD(B474,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9112,23 +9103,14 @@
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A476" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="B476" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C476" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D476" s="0" t="str">
         <f aca="false">IF(B476="","",IF(MOD(B476,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B477" s="0" t="n">
         <v>3</v>
@@ -9143,7 +9125,7 @@
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B478" s="0" t="n">
         <v>3</v>
@@ -9157,9 +9139,18 @@
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B479" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C479" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D479" s="0" t="str">
         <f aca="false">IF(B479="","",IF(MOD(B479,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9433,23 +9424,14 @@
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A498" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="B498" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C498" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D498" s="0" t="str">
         <f aca="false">IF(B498="","",IF(MOD(B498,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B499" s="0" t="n">
         <v>3</v>
@@ -9464,7 +9446,7 @@
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B500" s="0" t="n">
         <v>3</v>
@@ -9478,9 +9460,18 @@
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="B501" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C501" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D501" s="0" t="str">
         <f aca="false">IF(B501="","",IF(MOD(B501,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9499,60 +9490,60 @@
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="B503" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C503" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D503" s="0" t="str">
         <f aca="false">IF(B503="","",IF(MOD(B503,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="B504" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C504" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D504" s="0" t="str">
         <f aca="false">IF(B504="","",IF(MOD(B504,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B505" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C505" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D505" s="0" t="str">
         <f aca="false">IF(B505="","",IF(MOD(B505,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B506" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C506" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D506" s="0" t="str">
         <f aca="false">IF(B506="","",IF(MOD(B506,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B507" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C507" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D507" s="0" t="str">
         <f aca="false">IF(B507="","",IF(MOD(B507,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9560,14 +9551,14 @@
         <v>463</v>
       </c>
       <c r="B508" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C508" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D508" s="0" t="str">
         <f aca="false">IF(B508="","",IF(MOD(B508,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9590,14 +9581,14 @@
         <v>465</v>
       </c>
       <c r="B510" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C510" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D510" s="0" t="str">
         <f aca="false">IF(B510="","",IF(MOD(B510,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9605,14 +9596,14 @@
         <v>466</v>
       </c>
       <c r="B511" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C511" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D511" s="0" t="str">
         <f aca="false">IF(B511="","",IF(MOD(B511,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9650,10 +9641,10 @@
         <v>469</v>
       </c>
       <c r="B514" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D514" s="0" t="str">
         <f aca="false">IF(B514="","",IF(MOD(B514,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -9661,54 +9652,54 @@
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B515" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C515" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D515" s="0" t="str">
         <f aca="false">IF(B515="","",IF(MOD(B515,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B516" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C516" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D516" s="0" t="str">
         <f aca="false">IF(B516="","",IF(MOD(B516,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B517" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C517" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D517" s="0" t="str">
         <f aca="false">IF(B517="","",IF(MOD(B517,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="0" t="s">
+        <v>472</v>
+      </c>
+      <c r="B518" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C518" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D518" s="0" t="str">
         <f aca="false">IF(B518="","",IF(MOD(B518,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9836,14 +9827,14 @@
         <v>481</v>
       </c>
       <c r="B527" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D527" s="0" t="str">
         <f aca="false">IF(B527="","",IF(MOD(B527,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9851,14 +9842,14 @@
         <v>482</v>
       </c>
       <c r="B528" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D528" s="0" t="str">
         <f aca="false">IF(B528="","",IF(MOD(B528,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9866,19 +9857,19 @@
         <v>483</v>
       </c>
       <c r="B529" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D529" s="0" t="str">
         <f aca="false">IF(B529="","",IF(MOD(B529,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B530" s="0" t="n">
         <v>0</v>
@@ -9893,7 +9884,7 @@
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B531" s="0" t="n">
         <v>0</v>
@@ -9908,13 +9899,13 @@
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B532" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C532" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D532" s="0" t="str">
         <f aca="false">IF(B532="","",IF(MOD(B532,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -9926,10 +9917,10 @@
         <v>486</v>
       </c>
       <c r="B533" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D533" s="0" t="str">
         <f aca="false">IF(B533="","",IF(MOD(B533,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -9941,10 +9932,10 @@
         <v>487</v>
       </c>
       <c r="B534" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D534" s="0" t="str">
         <f aca="false">IF(B534="","",IF(MOD(B534,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10178,7 +10169,7 @@
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>2</v>
@@ -10193,7 +10184,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>2</v>
@@ -10208,7 +10199,7 @@
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>2</v>
@@ -10241,10 +10232,10 @@
         <v>504</v>
       </c>
       <c r="B554" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D554" s="0" t="str">
         <f aca="false">IF(B554="","",IF(MOD(B554,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10256,10 +10247,10 @@
         <v>505</v>
       </c>
       <c r="B555" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D555" s="0" t="str">
         <f aca="false">IF(B555="","",IF(MOD(B555,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10271,10 +10262,10 @@
         <v>506</v>
       </c>
       <c r="B556" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D556" s="0" t="str">
         <f aca="false">IF(B556="","",IF(MOD(B556,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10286,10 +10277,10 @@
         <v>507</v>
       </c>
       <c r="B557" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D557" s="0" t="str">
         <f aca="false">IF(B557="","",IF(MOD(B557,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10297,38 +10288,20 @@
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="B558" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C558" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D558" s="0" t="str">
         <f aca="false">IF(B558="","",IF(MOD(B558,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="B559" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C559" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D559" s="0" t="str">
         <f aca="false">IF(B559="","",IF(MOD(B559,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B560" s="0" t="n">
         <v>2</v>
@@ -10342,15 +10315,33 @@
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B561" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C561" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D561" s="0" t="str">
         <f aca="false">IF(B561="","",IF(MOD(B561,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B562" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C562" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D562" s="0" t="str">
         <f aca="false">IF(B562="","",IF(MOD(B562,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10553,10 +10544,10 @@
         <v>524</v>
       </c>
       <c r="B576" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D576" s="0" t="str">
         <f aca="false">IF(B576="","",IF(MOD(B576,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10583,10 +10574,10 @@
         <v>526</v>
       </c>
       <c r="B578" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D578" s="0" t="str">
         <f aca="false">IF(B578="","",IF(MOD(B578,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10613,10 +10604,10 @@
         <v>528</v>
       </c>
       <c r="B580" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C580" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D580" s="0" t="str">
         <f aca="false">IF(B580="","",IF(MOD(B580,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10643,10 +10634,10 @@
         <v>530</v>
       </c>
       <c r="B582" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C582" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D582" s="0" t="str">
         <f aca="false">IF(B582="","",IF(MOD(B582,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10688,10 +10679,10 @@
         <v>533</v>
       </c>
       <c r="B585" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D585" s="0" t="str">
         <f aca="false">IF(B585="","",IF(MOD(B585,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10714,44 +10705,26 @@
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B587" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C587" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D587" s="0" t="str">
         <f aca="false">IF(B587="","",IF(MOD(B587,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="B588" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C588" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D588" s="0" t="str">
         <f aca="false">IF(B588="","",IF(MOD(B588,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B589" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D589" s="0" t="str">
         <f aca="false">IF(B589="","",IF(MOD(B589,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10759,15 +10732,33 @@
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B590" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C590" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D590" s="0" t="str">
         <f aca="false">IF(B590="","",IF(MOD(B590,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B591" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C591" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D591" s="0" t="str">
         <f aca="false">IF(B591="","",IF(MOD(B591,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10865,10 +10856,10 @@
         <v>544</v>
       </c>
       <c r="B598" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C598" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D598" s="0" t="str">
         <f aca="false">IF(B598="","",IF(MOD(B598,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10880,10 +10871,10 @@
         <v>545</v>
       </c>
       <c r="B599" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C599" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D599" s="0" t="str">
         <f aca="false">IF(B599="","",IF(MOD(B599,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10895,10 +10886,10 @@
         <v>546</v>
       </c>
       <c r="B600" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D600" s="0" t="str">
         <f aca="false">IF(B600="","",IF(MOD(B600,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10925,10 +10916,10 @@
         <v>548</v>
       </c>
       <c r="B602" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D602" s="0" t="str">
         <f aca="false">IF(B602="","",IF(MOD(B602,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10970,10 +10961,10 @@
         <v>551</v>
       </c>
       <c r="B605" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D605" s="0" t="str">
         <f aca="false">IF(B605="","",IF(MOD(B605,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10996,44 +10987,26 @@
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="0" t="s">
-        <v>553</v>
-      </c>
-      <c r="B607" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C607" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D607" s="0" t="str">
         <f aca="false">IF(B607="","",IF(MOD(B607,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="B608" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C608" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D608" s="0" t="str">
         <f aca="false">IF(B608="","",IF(MOD(B608,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B609" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C609" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D609" s="0" t="str">
         <f aca="false">IF(B609="","",IF(MOD(B609,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11041,15 +11014,33 @@
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B610" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C610" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D610" s="0" t="str">
         <f aca="false">IF(B610="","",IF(MOD(B610,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="B611" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C611" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D611" s="0" t="str">
         <f aca="false">IF(B611="","",IF(MOD(B611,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11147,10 +11138,10 @@
         <v>562</v>
       </c>
       <c r="B618" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D618" s="0" t="str">
         <f aca="false">IF(B618="","",IF(MOD(B618,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11162,10 +11153,10 @@
         <v>563</v>
       </c>
       <c r="B619" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D619" s="0" t="str">
         <f aca="false">IF(B619="","",IF(MOD(B619,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11177,10 +11168,10 @@
         <v>564</v>
       </c>
       <c r="B620" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D620" s="0" t="str">
         <f aca="false">IF(B620="","",IF(MOD(B620,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11207,10 +11198,10 @@
         <v>566</v>
       </c>
       <c r="B622" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D622" s="0" t="str">
         <f aca="false">IF(B622="","",IF(MOD(B622,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11252,10 +11243,10 @@
         <v>569</v>
       </c>
       <c r="B625" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D625" s="0" t="str">
         <f aca="false">IF(B625="","",IF(MOD(B625,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11278,29 +11269,20 @@
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="0" t="s">
-        <v>571</v>
-      </c>
-      <c r="B627" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C627" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D627" s="0" t="str">
         <f aca="false">IF(B627="","",IF(MOD(B627,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B628" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D628" s="0" t="str">
         <f aca="false">IF(B628="","",IF(MOD(B628,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11309,13 +11291,13 @@
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B629" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D629" s="0" t="str">
         <f aca="false">IF(B629="","",IF(MOD(B629,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11323,9 +11305,18 @@
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="B630" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C630" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D630" s="0" t="str">
         <f aca="false">IF(B630="","",IF(MOD(B630,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11333,10 +11324,10 @@
         <v>574</v>
       </c>
       <c r="B631" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D631" s="0" t="str">
         <f aca="false">IF(B631="","",IF(MOD(B631,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11393,10 +11384,10 @@
         <v>578</v>
       </c>
       <c r="B635" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D635" s="0" t="str">
         <f aca="false">IF(B635="","",IF(MOD(B635,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11423,10 +11414,10 @@
         <v>580</v>
       </c>
       <c r="B637" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D637" s="0" t="str">
         <f aca="false">IF(B637="","",IF(MOD(B637,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11468,10 +11459,10 @@
         <v>583</v>
       </c>
       <c r="B640" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D640" s="0" t="str">
         <f aca="false">IF(B640="","",IF(MOD(B640,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11494,44 +11485,26 @@
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="0" t="s">
-        <v>585</v>
-      </c>
-      <c r="B642" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C642" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D642" s="0" t="str">
         <f aca="false">IF(B642="","",IF(MOD(B642,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="B643" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C643" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D643" s="0" t="str">
         <f aca="false">IF(B643="","",IF(MOD(B643,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B644" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D644" s="0" t="str">
         <f aca="false">IF(B644="","",IF(MOD(B644,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11539,15 +11512,33 @@
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B645" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C645" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D645" s="0" t="str">
         <f aca="false">IF(B645="","",IF(MOD(B645,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="B646" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C646" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D646" s="0" t="str">
         <f aca="false">IF(B646="","",IF(MOD(B646,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11645,10 +11636,10 @@
         <v>594</v>
       </c>
       <c r="B653" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D653" s="0" t="str">
         <f aca="false">IF(B653="","",IF(MOD(B653,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11660,10 +11651,10 @@
         <v>595</v>
       </c>
       <c r="B654" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D654" s="0" t="str">
         <f aca="false">IF(B654="","",IF(MOD(B654,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11675,10 +11666,10 @@
         <v>596</v>
       </c>
       <c r="B655" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D655" s="0" t="str">
         <f aca="false">IF(B655="","",IF(MOD(B655,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11705,10 +11696,10 @@
         <v>598</v>
       </c>
       <c r="B657" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D657" s="0" t="str">
         <f aca="false">IF(B657="","",IF(MOD(B657,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11750,10 +11741,10 @@
         <v>601</v>
       </c>
       <c r="B660" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D660" s="0" t="str">
         <f aca="false">IF(B660="","",IF(MOD(B660,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11776,29 +11767,20 @@
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="0" t="s">
-        <v>603</v>
-      </c>
-      <c r="B662" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C662" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D662" s="0" t="str">
         <f aca="false">IF(B662="","",IF(MOD(B662,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B663" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D663" s="0" t="str">
         <f aca="false">IF(B663="","",IF(MOD(B663,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11807,13 +11789,13 @@
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B664" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D664" s="0" t="str">
         <f aca="false">IF(B664="","",IF(MOD(B664,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11821,9 +11803,18 @@
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B665" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C665" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D665" s="0" t="str">
         <f aca="false">IF(B665="","",IF(MOD(B665,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11846,10 +11837,10 @@
         <v>607</v>
       </c>
       <c r="B667" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D667" s="0" t="str">
         <f aca="false">IF(B667="","",IF(MOD(B667,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11876,10 +11867,10 @@
         <v>609</v>
       </c>
       <c r="B669" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D669" s="0" t="str">
         <f aca="false">IF(B669="","",IF(MOD(B669,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11906,10 +11897,10 @@
         <v>611</v>
       </c>
       <c r="B671" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D671" s="0" t="str">
         <f aca="false">IF(B671="","",IF(MOD(B671,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11936,10 +11927,10 @@
         <v>613</v>
       </c>
       <c r="B673" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D673" s="0" t="str">
         <f aca="false">IF(B673="","",IF(MOD(B673,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11951,10 +11942,10 @@
         <v>614</v>
       </c>
       <c r="B674" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D674" s="0" t="str">
         <f aca="false">IF(B674="","",IF(MOD(B674,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11966,10 +11957,10 @@
         <v>615</v>
       </c>
       <c r="B675" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C675" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D675" s="0" t="str">
         <f aca="false">IF(B675="","",IF(MOD(B675,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12011,10 +12002,10 @@
         <v>618</v>
       </c>
       <c r="B678" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D678" s="0" t="str">
         <f aca="false">IF(B678="","",IF(MOD(B678,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12026,10 +12017,10 @@
         <v>619</v>
       </c>
       <c r="B679" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C679" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D679" s="0" t="str">
         <f aca="false">IF(B679="","",IF(MOD(B679,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12041,10 +12032,10 @@
         <v>620</v>
       </c>
       <c r="B680" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D680" s="0" t="str">
         <f aca="false">IF(B680="","",IF(MOD(B680,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12067,44 +12058,26 @@
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="B682" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C682" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D682" s="0" t="str">
         <f aca="false">IF(B682="","",IF(MOD(B682,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="B683" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C683" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D683" s="0" t="str">
         <f aca="false">IF(B683="","",IF(MOD(B683,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B684" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D684" s="0" t="str">
         <f aca="false">IF(B684="","",IF(MOD(B684,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12112,15 +12085,33 @@
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B685" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C685" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D685" s="0" t="str">
         <f aca="false">IF(B685="","",IF(MOD(B685,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B686" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C686" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D686" s="0" t="str">
         <f aca="false">IF(B686="","",IF(MOD(B686,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12128,10 +12119,10 @@
         <v>625</v>
       </c>
       <c r="B687" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D687" s="0" t="str">
         <f aca="false">IF(B687="","",IF(MOD(B687,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12154,48 +12145,21 @@
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="B689" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C689" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D689" s="0" t="str">
         <f aca="false">IF(B689="","",IF(MOD(B689,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="B690" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C690" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D690" s="0" t="str">
         <f aca="false">IF(B690="","",IF(MOD(B690,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="B691" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C691" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D691" s="0" t="str">
         <f aca="false">IF(B691="","",IF(MOD(B691,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12205,21 +12169,48 @@
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B693" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C693" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D693" s="0" t="str">
         <f aca="false">IF(B693="","",IF(MOD(B693,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B694" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C694" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D694" s="0" t="str">
         <f aca="false">IF(B694="","",IF(MOD(B694,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B695" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C695" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D695" s="0" t="str">
         <f aca="false">IF(B695="","",IF(MOD(B695,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12227,71 +12218,71 @@
         <v>630</v>
       </c>
       <c r="B696" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C696" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D696" s="0" t="str">
         <f aca="false">IF(B696="","",IF(MOD(B696,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="0" t="s">
-        <v>631</v>
-      </c>
-      <c r="B697" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C697" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D697" s="0" t="str">
         <f aca="false">IF(B697="","",IF(MOD(B697,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="B698" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C698" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D698" s="0" t="str">
         <f aca="false">IF(B698="","",IF(MOD(B698,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B699" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C699" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D699" s="0" t="str">
         <f aca="false">IF(B699="","",IF(MOD(B699,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B700" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C700" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D700" s="0" t="str">
         <f aca="false">IF(B700="","",IF(MOD(B700,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B701" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C701" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D701" s="0" t="str">
         <f aca="false">IF(B701="","",IF(MOD(B701,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12329,10 +12320,10 @@
         <v>636</v>
       </c>
       <c r="B704" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C704" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D704" s="0" t="str">
         <f aca="false">IF(B704="","",IF(MOD(B704,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12404,10 +12395,10 @@
         <v>641</v>
       </c>
       <c r="B709" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C709" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D709" s="0" t="str">
         <f aca="false">IF(B709="","",IF(MOD(B709,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12419,10 +12410,10 @@
         <v>642</v>
       </c>
       <c r="B710" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C710" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D710" s="0" t="str">
         <f aca="false">IF(B710="","",IF(MOD(B710,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12434,10 +12425,10 @@
         <v>643</v>
       </c>
       <c r="B711" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C711" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D711" s="0" t="str">
         <f aca="false">IF(B711="","",IF(MOD(B711,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12449,10 +12440,10 @@
         <v>644</v>
       </c>
       <c r="B712" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C712" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D712" s="0" t="str">
         <f aca="false">IF(B712="","",IF(MOD(B712,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12464,10 +12455,10 @@
         <v>645</v>
       </c>
       <c r="B713" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C713" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D713" s="0" t="str">
         <f aca="false">IF(B713="","",IF(MOD(B713,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12479,10 +12470,10 @@
         <v>646</v>
       </c>
       <c r="B714" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D714" s="0" t="str">
         <f aca="false">IF(B714="","",IF(MOD(B714,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12506,13 +12497,13 @@
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B716" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C716" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D716" s="0" t="str">
         <f aca="false">IF(B716="","",IF(MOD(B716,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12521,7 +12512,7 @@
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B717" s="0" t="n">
         <v>2</v>
@@ -12536,7 +12527,7 @@
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B718" s="0" t="n">
         <v>2</v>
@@ -12551,7 +12542,7 @@
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B719" s="0" t="n">
         <v>2</v>
@@ -12584,10 +12575,10 @@
         <v>652</v>
       </c>
       <c r="B721" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C721" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D721" s="0" t="str">
         <f aca="false">IF(B721="","",IF(MOD(B721,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12644,10 +12635,10 @@
         <v>656</v>
       </c>
       <c r="B725" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C725" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D725" s="0" t="str">
         <f aca="false">IF(B725="","",IF(MOD(B725,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12674,10 +12665,10 @@
         <v>658</v>
       </c>
       <c r="B727" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C727" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D727" s="0" t="str">
         <f aca="false">IF(B727="","",IF(MOD(B727,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12734,10 +12725,10 @@
         <v>662</v>
       </c>
       <c r="B731" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C731" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D731" s="0" t="str">
         <f aca="false">IF(B731="","",IF(MOD(B731,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12764,10 +12755,10 @@
         <v>664</v>
       </c>
       <c r="B733" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C733" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D733" s="0" t="str">
         <f aca="false">IF(B733="","",IF(MOD(B733,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12824,10 +12815,10 @@
         <v>668</v>
       </c>
       <c r="B737" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C737" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D737" s="0" t="str">
         <f aca="false">IF(B737="","",IF(MOD(B737,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12854,14 +12845,14 @@
         <v>670</v>
       </c>
       <c r="B739" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C739" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D739" s="0" t="str">
         <f aca="false">IF(B739="","",IF(MOD(B739,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12869,10 +12860,10 @@
         <v>671</v>
       </c>
       <c r="B740" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C740" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D740" s="0" t="str">
         <f aca="false">IF(B740="","",IF(MOD(B740,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12884,10 +12875,10 @@
         <v>672</v>
       </c>
       <c r="B741" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C741" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D741" s="0" t="str">
         <f aca="false">IF(B741="","",IF(MOD(B741,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12899,14 +12890,14 @@
         <v>673</v>
       </c>
       <c r="B742" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C742" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D742" s="0" t="str">
         <f aca="false">IF(B742="","",IF(MOD(B742,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12914,10 +12905,10 @@
         <v>674</v>
       </c>
       <c r="B743" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C743" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D743" s="0" t="str">
         <f aca="false">IF(B743="","",IF(MOD(B743,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12929,10 +12920,10 @@
         <v>675</v>
       </c>
       <c r="B744" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C744" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D744" s="0" t="str">
         <f aca="false">IF(B744="","",IF(MOD(B744,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12944,10 +12935,10 @@
         <v>676</v>
       </c>
       <c r="B745" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C745" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D745" s="0" t="str">
         <f aca="false">IF(B745="","",IF(MOD(B745,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12955,23 +12946,14 @@
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A746" s="0" t="s">
-        <v>677</v>
-      </c>
-      <c r="B746" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C746" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D746" s="0" t="str">
         <f aca="false">IF(B746="","",IF(MOD(B746,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B747" s="0" t="n">
         <v>2</v>
@@ -12986,7 +12968,7 @@
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B748" s="0" t="n">
         <v>0</v>
@@ -13000,9 +12982,18 @@
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="B749" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C749" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D749" s="0" t="str">
         <f aca="false">IF(B749="","",IF(MOD(B749,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13010,10 +13001,10 @@
         <v>680</v>
       </c>
       <c r="B750" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C750" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D750" s="0" t="str">
         <f aca="false">IF(B750="","",IF(MOD(B750,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13021,23 +13012,14 @@
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A751" s="0" t="s">
-        <v>681</v>
-      </c>
-      <c r="B751" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C751" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D751" s="0" t="str">
         <f aca="false">IF(B751="","",IF(MOD(B751,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B752" s="0" t="n">
         <v>2</v>
@@ -13052,7 +13034,7 @@
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B753" s="0" t="n">
         <v>0</v>
@@ -13066,9 +13048,18 @@
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A754" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="B754" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C754" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D754" s="0" t="str">
         <f aca="false">IF(B754="","",IF(MOD(B754,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13076,10 +13067,10 @@
         <v>684</v>
       </c>
       <c r="B755" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C755" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D755" s="0" t="str">
         <f aca="false">IF(B755="","",IF(MOD(B755,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13091,10 +13082,10 @@
         <v>685</v>
       </c>
       <c r="B756" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C756" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D756" s="0" t="str">
         <f aca="false">IF(B756="","",IF(MOD(B756,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13106,10 +13097,10 @@
         <v>686</v>
       </c>
       <c r="B757" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C757" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D757" s="0" t="str">
         <f aca="false">IF(B757="","",IF(MOD(B757,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13121,10 +13112,10 @@
         <v>687</v>
       </c>
       <c r="B758" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C758" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D758" s="0" t="str">
         <f aca="false">IF(B758="","",IF(MOD(B758,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13136,10 +13127,10 @@
         <v>688</v>
       </c>
       <c r="B759" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C759" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D759" s="0" t="str">
         <f aca="false">IF(B759="","",IF(MOD(B759,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13151,10 +13142,10 @@
         <v>689</v>
       </c>
       <c r="B760" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C760" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D760" s="0" t="str">
         <f aca="false">IF(B760="","",IF(MOD(B760,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13166,10 +13157,10 @@
         <v>690</v>
       </c>
       <c r="B761" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C761" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D761" s="0" t="str">
         <f aca="false">IF(B761="","",IF(MOD(B761,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13181,10 +13172,10 @@
         <v>691</v>
       </c>
       <c r="B762" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C762" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D762" s="0" t="str">
         <f aca="false">IF(B762="","",IF(MOD(B762,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13196,10 +13187,10 @@
         <v>692</v>
       </c>
       <c r="B763" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C763" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D763" s="0" t="str">
         <f aca="false">IF(B763="","",IF(MOD(B763,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13211,10 +13202,10 @@
         <v>693</v>
       </c>
       <c r="B764" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C764" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D764" s="0" t="str">
         <f aca="false">IF(B764="","",IF(MOD(B764,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13226,10 +13217,10 @@
         <v>694</v>
       </c>
       <c r="B765" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C765" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D765" s="0" t="str">
         <f aca="false">IF(B765="","",IF(MOD(B765,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13241,10 +13232,10 @@
         <v>695</v>
       </c>
       <c r="B766" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C766" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D766" s="0" t="str">
         <f aca="false">IF(B766="","",IF(MOD(B766,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13256,10 +13247,10 @@
         <v>696</v>
       </c>
       <c r="B767" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C767" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D767" s="0" t="str">
         <f aca="false">IF(B767="","",IF(MOD(B767,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13268,13 +13259,13 @@
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B768" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C768" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D768" s="0" t="str">
         <f aca="false">IF(B768="","",IF(MOD(B768,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13283,7 +13274,7 @@
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B769" s="0" t="n">
         <v>2</v>
@@ -13298,7 +13289,7 @@
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B770" s="0" t="n">
         <v>0</v>
@@ -13313,7 +13304,7 @@
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B771" s="0" t="n">
         <v>2</v>
@@ -13331,10 +13322,10 @@
         <v>700</v>
       </c>
       <c r="B772" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C772" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D772" s="0" t="str">
         <f aca="false">IF(B772="","",IF(MOD(B772,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13376,10 +13367,10 @@
         <v>703</v>
       </c>
       <c r="B775" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C775" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D775" s="0" t="str">
         <f aca="false">IF(B775="","",IF(MOD(B775,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13387,66 +13378,66 @@
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A776" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="B776" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C776" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D776" s="0" t="str">
         <f aca="false">IF(B776="","",IF(MOD(B776,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A777" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="B777" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C777" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D777" s="0" t="str">
         <f aca="false">IF(B777="","",IF(MOD(B777,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="B778" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C778" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D778" s="0" t="str">
         <f aca="false">IF(B778="","",IF(MOD(B778,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B779" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C779" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D779" s="0" t="str">
         <f aca="false">IF(B779="","",IF(MOD(B779,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A780" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="B780" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C780" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D780" s="0" t="str">
         <f aca="false">IF(B780="","",IF(MOD(B780,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A781" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B781" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C781" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D781" s="0" t="str">
         <f aca="false">IF(B781="","",IF(MOD(B781,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13469,10 +13460,10 @@
         <v>708</v>
       </c>
       <c r="B783" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C783" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D783" s="0" t="str">
         <f aca="false">IF(B783="","",IF(MOD(B783,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13514,10 +13505,10 @@
         <v>711</v>
       </c>
       <c r="B786" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C786" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D786" s="0" t="str">
         <f aca="false">IF(B786="","",IF(MOD(B786,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13525,23 +13516,14 @@
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A787" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="B787" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C787" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D787" s="0" t="str">
         <f aca="false">IF(B787="","",IF(MOD(B787,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B788" s="0" t="n">
         <v>2</v>
@@ -13556,13 +13538,13 @@
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B789" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C789" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D789" s="0" t="str">
         <f aca="false">IF(B789="","",IF(MOD(B789,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13570,9 +13552,18 @@
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A790" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B790" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C790" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D790" s="0" t="str">
         <f aca="false">IF(B790="","",IF(MOD(B790,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13580,10 +13571,10 @@
         <v>715</v>
       </c>
       <c r="B791" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C791" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D791" s="0" t="str">
         <f aca="false">IF(B791="","",IF(MOD(B791,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13591,29 +13582,20 @@
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="B792" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C792" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D792" s="0" t="str">
         <f aca="false">IF(B792="","",IF(MOD(B792,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B793" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C793" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D793" s="0" t="str">
         <f aca="false">IF(B793="","",IF(MOD(B793,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13622,13 +13604,13 @@
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B794" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C794" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D794" s="0" t="str">
         <f aca="false">IF(B794="","",IF(MOD(B794,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13636,9 +13618,18 @@
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A795" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="B795" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C795" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D795" s="0" t="str">
         <f aca="false">IF(B795="","",IF(MOD(B795,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13646,10 +13637,10 @@
         <v>719</v>
       </c>
       <c r="B796" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C796" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D796" s="0" t="str">
         <f aca="false">IF(B796="","",IF(MOD(B796,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13661,14 +13652,14 @@
         <v>720</v>
       </c>
       <c r="B797" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C797" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D797" s="0" t="str">
         <f aca="false">IF(B797="","",IF(MOD(B797,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13676,10 +13667,10 @@
         <v>721</v>
       </c>
       <c r="B798" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C798" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D798" s="0" t="str">
         <f aca="false">IF(B798="","",IF(MOD(B798,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13691,10 +13682,10 @@
         <v>722</v>
       </c>
       <c r="B799" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C799" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D799" s="0" t="str">
         <f aca="false">IF(B799="","",IF(MOD(B799,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13706,14 +13697,14 @@
         <v>723</v>
       </c>
       <c r="B800" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C800" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D800" s="0" t="str">
         <f aca="false">IF(B800="","",IF(MOD(B800,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13766,10 +13757,10 @@
         <v>727</v>
       </c>
       <c r="B804" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C804" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D804" s="0" t="str">
         <f aca="false">IF(B804="","",IF(MOD(B804,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13781,14 +13772,14 @@
         <v>728</v>
       </c>
       <c r="B805" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C805" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D805" s="0" t="str">
         <f aca="false">IF(B805="","",IF(MOD(B805,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13796,14 +13787,14 @@
         <v>729</v>
       </c>
       <c r="B806" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C806" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D806" s="0" t="str">
         <f aca="false">IF(B806="","",IF(MOD(B806,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13811,14 +13802,14 @@
         <v>730</v>
       </c>
       <c r="B807" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C807" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D807" s="0" t="str">
         <f aca="false">IF(B807="","",IF(MOD(B807,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13837,71 +13828,71 @@
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A809" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="B809" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C809" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D809" s="0" t="str">
         <f aca="false">IF(B809="","",IF(MOD(B809,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A810" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="B810" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C810" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D810" s="0" t="str">
         <f aca="false">IF(B810="","",IF(MOD(B810,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A811" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="B811" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C811" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D811" s="0" t="str">
         <f aca="false">IF(B811="","",IF(MOD(B811,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A812" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="B812" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C812" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D812" s="0" t="str">
         <f aca="false">IF(B812="","",IF(MOD(B812,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A813" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B813" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C813" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D813" s="0" t="str">
         <f aca="false">IF(B813="","",IF(MOD(B813,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A814" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="B814" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C814" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D814" s="0" t="str">
         <f aca="false">IF(B814="","",IF(MOD(B814,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B815" s="0" t="n">
         <v>2</v>
@@ -13916,13 +13907,13 @@
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B816" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C816" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D816" s="0" t="str">
         <f aca="false">IF(B816="","",IF(MOD(B816,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13931,17 +13922,17 @@
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B817" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C817" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D817" s="0" t="str">
         <f aca="false">IF(B817="","",IF(MOD(B817,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13949,10 +13940,10 @@
         <v>737</v>
       </c>
       <c r="B818" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C818" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D818" s="0" t="str">
         <f aca="false">IF(B818="","",IF(MOD(B818,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13964,10 +13955,10 @@
         <v>738</v>
       </c>
       <c r="B819" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C819" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D819" s="0" t="str">
         <f aca="false">IF(B819="","",IF(MOD(B819,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13979,14 +13970,14 @@
         <v>739</v>
       </c>
       <c r="B820" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C820" s="0" t="s">
         <v>35</v>
       </c>
       <c r="D820" s="0" t="str">
         <f aca="false">IF(B820="","",IF(MOD(B820,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14035,29 +14026,20 @@
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A824" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="B824" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C824" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D824" s="0" t="str">
         <f aca="false">IF(B824="","",IF(MOD(B824,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B825" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C825" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D825" s="0" t="str">
         <f aca="false">IF(B825="","",IF(MOD(B825,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14066,13 +14048,13 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B826" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C826" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D826" s="0" t="str">
         <f aca="false">IF(B826="","",IF(MOD(B826,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14080,9 +14062,18 @@
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A827" s="0" t="s">
+        <v>745</v>
+      </c>
+      <c r="B827" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C827" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D827" s="0" t="str">
         <f aca="false">IF(B827="","",IF(MOD(B827,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14135,10 +14126,10 @@
         <v>749</v>
       </c>
       <c r="B831" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C831" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D831" s="0" t="str">
         <f aca="false">IF(B831="","",IF(MOD(B831,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14150,10 +14141,10 @@
         <v>750</v>
       </c>
       <c r="B832" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C832" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D832" s="0" t="str">
         <f aca="false">IF(B832="","",IF(MOD(B832,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14165,10 +14156,10 @@
         <v>751</v>
       </c>
       <c r="B833" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C833" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D833" s="0" t="str">
         <f aca="false">IF(B833="","",IF(MOD(B833,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14180,10 +14171,10 @@
         <v>752</v>
       </c>
       <c r="B834" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C834" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D834" s="0" t="str">
         <f aca="false">IF(B834="","",IF(MOD(B834,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14195,10 +14186,10 @@
         <v>753</v>
       </c>
       <c r="B835" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C835" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D835" s="0" t="str">
         <f aca="false">IF(B835="","",IF(MOD(B835,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14210,10 +14201,10 @@
         <v>754</v>
       </c>
       <c r="B836" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C836" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D836" s="0" t="str">
         <f aca="false">IF(B836="","",IF(MOD(B836,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14251,54 +14242,54 @@
       </c>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A839" s="0" t="s">
-        <v>757</v>
-      </c>
-      <c r="B839" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C839" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D839" s="0" t="str">
         <f aca="false">IF(B839="","",IF(MOD(B839,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B840" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D840" s="0" t="str">
         <f aca="false">IF(B840="","",IF(MOD(B840,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B841" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D841" s="0" t="str">
         <f aca="false">IF(B841="","",IF(MOD(B841,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A842" s="0" t="s">
+        <v>759</v>
+      </c>
+      <c r="B842" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C842" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D842" s="0" t="str">
         <f aca="false">IF(B842="","",IF(MOD(B842,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14407,48 +14398,39 @@
       </c>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A850" s="0" t="s">
-        <v>767</v>
-      </c>
-      <c r="B850" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C850" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D850" s="0" t="str">
         <f aca="false">IF(B850="","",IF(MOD(B850,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B851" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C851" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D851" s="0" t="str">
         <f aca="false">IF(B851="","",IF(MOD(B851,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="0" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B852" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C852" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D852" s="0" t="str">
         <f aca="false">IF(B852="","",IF(MOD(B852,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14459,7 +14441,7 @@
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="0" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B854" s="0" t="n">
         <v>2</v>
@@ -14474,23 +14456,32 @@
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B855" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D855" s="0" t="str">
         <f aca="false">IF(B855="","",IF(MOD(B855,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A856" s="0" t="s">
+        <v>771</v>
+      </c>
+      <c r="B856" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C856" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D856" s="0" t="str">
         <f aca="false">IF(B856="","",IF(MOD(B856,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14498,10 +14489,10 @@
         <v>772</v>
       </c>
       <c r="B857" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C857" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D857" s="0" t="str">
         <f aca="false">IF(B857="","",IF(MOD(B857,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14513,14 +14504,14 @@
         <v>773</v>
       </c>
       <c r="B858" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C858" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D858" s="0" t="str">
         <f aca="false">IF(B858="","",IF(MOD(B858,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14543,91 +14534,82 @@
         <v>775</v>
       </c>
       <c r="B860" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C860" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D860" s="0" t="str">
         <f aca="false">IF(B860="","",IF(MOD(B860,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="B861" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C861" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D861" s="0" t="str">
         <f aca="false">IF(B861="","",IF(MOD(B861,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A862" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="B862" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C862" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D862" s="0" t="str">
         <f aca="false">IF(B862="","",IF(MOD(B862,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B863" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C863" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D863" s="0" t="str">
         <f aca="false">IF(B863="","",IF(MOD(B863,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A864" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B864" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C864" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D864" s="0" t="str">
         <f aca="false">IF(B864="","",IF(MOD(B864,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A865" s="0" t="s">
+        <v>778</v>
+      </c>
+      <c r="B865" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C865" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D865" s="0" t="str">
         <f aca="false">IF(B865="","",IF(MOD(B865,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A866" s="0" t="s">
-        <v>779</v>
-      </c>
-      <c r="B866" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C866" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D866" s="0" t="str">
         <f aca="false">IF(B866="","",IF(MOD(B866,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B867" s="0" t="n">
         <v>0</v>
@@ -14642,7 +14624,7 @@
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B868" s="0" t="n">
         <v>0</v>
@@ -14656,44 +14638,35 @@
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A869" s="0" t="s">
+        <v>781</v>
+      </c>
+      <c r="B869" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C869" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D869" s="0" t="str">
         <f aca="false">IF(B869="","",IF(MOD(B869,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="B870" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C870" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D870" s="0" t="str">
         <f aca="false">IF(B870="","",IF(MOD(B870,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="B871" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C871" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D871" s="0" t="str">
         <f aca="false">IF(B871="","",IF(MOD(B871,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B872" s="0" t="n">
         <v>2</v>
@@ -14707,15 +14680,33 @@
       </c>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A873" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B873" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C873" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D873" s="0" t="str">
         <f aca="false">IF(B873="","",IF(MOD(B873,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A874" s="0" t="s">
+        <v>784</v>
+      </c>
+      <c r="B874" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C874" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D874" s="0" t="str">
         <f aca="false">IF(B874="","",IF(MOD(B874,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14723,10 +14714,10 @@
         <v>785</v>
       </c>
       <c r="B875" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C875" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D875" s="0" t="str">
         <f aca="false">IF(B875="","",IF(MOD(B875,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14738,10 +14729,10 @@
         <v>786</v>
       </c>
       <c r="B876" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C876" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D876" s="0" t="str">
         <f aca="false">IF(B876="","",IF(MOD(B876,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14753,10 +14744,10 @@
         <v>787</v>
       </c>
       <c r="B877" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C877" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D877" s="0" t="str">
         <f aca="false">IF(B877="","",IF(MOD(B877,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14764,29 +14755,20 @@
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="B878" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C878" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D878" s="0" t="str">
         <f aca="false">IF(B878="","",IF(MOD(B878,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B879" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C879" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D879" s="0" t="str">
         <f aca="false">IF(B879="","",IF(MOD(B879,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14795,23 +14777,32 @@
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B880" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C880" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D880" s="0" t="str">
         <f aca="false">IF(B880="","",IF(MOD(B880,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A881" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="B881" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C881" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D881" s="0" t="str">
         <f aca="false">IF(B881="","",IF(MOD(B881,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14819,14 +14810,14 @@
         <v>791</v>
       </c>
       <c r="B882" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C882" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D882" s="0" t="str">
         <f aca="false">IF(B882="","",IF(MOD(B882,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15130,38 +15121,20 @@
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A903" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="B903" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C903" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D903" s="0" t="str">
         <f aca="false">IF(B903="","",IF(MOD(B903,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A904" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="B904" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C904" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D904" s="0" t="str">
         <f aca="false">IF(B904="","",IF(MOD(B904,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B905" s="0" t="n">
         <v>3</v>
@@ -15175,15 +15148,33 @@
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A906" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="B906" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C906" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D906" s="0" t="str">
         <f aca="false">IF(B906="","",IF(MOD(B906,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A907" s="0" t="s">
+        <v>814</v>
+      </c>
+      <c r="B907" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C907" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D907" s="0" t="str">
         <f aca="false">IF(B907="","",IF(MOD(B907,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15232,74 +15223,65 @@
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A911" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="B911" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C911" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D911" s="0" t="str">
         <f aca="false">IF(B911="","",IF(MOD(B911,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B912" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D912" s="0" t="str">
         <f aca="false">IF(B912="","",IF(MOD(B912,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B913" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C913" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D913" s="0" t="str">
         <f aca="false">IF(B913="","",IF(MOD(B913,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A914" s="0" t="s">
+        <v>820</v>
+      </c>
+      <c r="B914" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C914" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D914" s="0" t="str">
         <f aca="false">IF(B914="","",IF(MOD(B914,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A915" s="0" t="s">
-        <v>821</v>
-      </c>
-      <c r="B915" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C915" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D915" s="0" t="str">
         <f aca="false">IF(B915="","",IF(MOD(B915,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B916" s="0" t="n">
         <v>2</v>
@@ -15314,23 +15296,32 @@
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B917" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C917" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D917" s="0" t="str">
         <f aca="false">IF(B917="","",IF(MOD(B917,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A918" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="B918" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C918" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D918" s="0" t="str">
         <f aca="false">IF(B918="","",IF(MOD(B918,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15338,10 +15329,10 @@
         <v>824</v>
       </c>
       <c r="B919" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C919" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D919" s="0" t="str">
         <f aca="false">IF(B919="","",IF(MOD(B919,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -15353,14 +15344,14 @@
         <v>825</v>
       </c>
       <c r="B920" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C920" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D920" s="0" t="str">
         <f aca="false">IF(B920="","",IF(MOD(B920,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15368,40 +15359,31 @@
         <v>826</v>
       </c>
       <c r="B921" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C921" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D921" s="0" t="str">
         <f aca="false">IF(B921="","",IF(MOD(B921,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="0" t="s">
-        <v>827</v>
-      </c>
-      <c r="B922" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C922" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D922" s="0" t="str">
         <f aca="false">IF(B922="","",IF(MOD(B922,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B923" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C923" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D923" s="0" t="str">
         <f aca="false">IF(B923="","",IF(MOD(B923,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -15410,23 +15392,32 @@
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B924" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C924" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D924" s="0" t="str">
         <f aca="false">IF(B924="","",IF(MOD(B924,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="B925" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C925" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D925" s="0" t="str">
         <f aca="false">IF(B925="","",IF(MOD(B925,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15464,10 +15455,10 @@
         <v>832</v>
       </c>
       <c r="B928" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C928" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D928" s="0" t="str">
         <f aca="false">IF(B928="","",IF(MOD(B928,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -15595,29 +15586,20 @@
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A937" s="0" t="s">
-        <v>841</v>
-      </c>
-      <c r="B937" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C937" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D937" s="0" t="str">
         <f aca="false">IF(B937="","",IF(MOD(B937,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B938" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C938" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D938" s="0" t="str">
         <f aca="false">IF(B938="","",IF(MOD(B938,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -15626,13 +15608,13 @@
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B939" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C939" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D939" s="0" t="str">
         <f aca="false">IF(B939="","",IF(MOD(B939,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -15640,9 +15622,18 @@
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="B940" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C940" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D940" s="0" t="str">
         <f aca="false">IF(B940="","",IF(MOD(B940,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15766,83 +15757,41 @@
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A949" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="B949" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C949" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D949" s="0" t="str">
         <f aca="false">IF(B949="","",IF(MOD(B949,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="0" t="s">
-        <v>853</v>
-      </c>
-      <c r="B950" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C950" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D950" s="0" t="str">
         <f aca="false">IF(B950="","",IF(MOD(B950,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A951" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="B951" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C951" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D951" s="0" t="str">
         <f aca="false">IF(B951="","",IF(MOD(B951,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A952" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="B952" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C952" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D952" s="0" t="str">
         <f aca="false">IF(B952="","",IF(MOD(B952,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D953" s="0" t="str">
-        <f aca="false">IF(B953="","",IF(MOD(B953,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D954" s="0" t="str">
-        <f aca="false">IF(B954="","",IF(MOD(B954,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A955" s="0" t="s">
-        <v>855</v>
-      </c>
-      <c r="B955" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C955" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="D955" s="0" t="str">
-        <f aca="false">IF(B955="","",IF(MOD(B955,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
-      </c>
-    </row>
+        <v>PSEUDO</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/conf/rush_rules_v3.xlsx
+++ b/conf/rush_rules_v3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="856">
   <si>
     <t xml:space="preserve">#/*******************************************************************************</t>
   </si>
@@ -937,7 +937,16 @@
     <t xml:space="preserve">\a\s+\n\n</t>
   </si>
   <si>
-    <t xml:space="preserve">\a\w+\e</t>
+    <t xml:space="preserve">\a\n\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\a\n\e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\a\s+\n\e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\a\n\n\e</t>
   </si>
   <si>
     <t xml:space="preserve">\c)********</t>
@@ -2675,9 +2684,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:D955"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A316" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A315" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A334" activeCellId="0" sqref="A334"/>
     </sheetView>
   </sheetViews>
@@ -7732,14 +7741,23 @@
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="B379" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D379" s="0" t="str">
         <f aca="false">IF(B379="","",IF(MOD(B379,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B380" s="0" t="n">
         <v>2</v>
@@ -7754,7 +7772,7 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B381" s="0" t="n">
         <v>2</v>
@@ -7768,18 +7786,9 @@
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="B382" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C382" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D382" s="0" t="str">
         <f aca="false">IF(B382="","",IF(MOD(B382,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8143,54 +8152,54 @@
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="B407" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C407" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D407" s="0" t="str">
         <f aca="false">IF(B407="","",IF(MOD(B407,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B408" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C408" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D408" s="0" t="str">
         <f aca="false">IF(B408="","",IF(MOD(B408,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B409" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C409" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D409" s="0" t="str">
         <f aca="false">IF(B409="","",IF(MOD(B409,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="B410" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C410" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D410" s="0" t="str">
         <f aca="false">IF(B410="","",IF(MOD(B410,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8314,14 +8323,23 @@
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="B419" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C419" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D419" s="0" t="str">
         <f aca="false">IF(B419="","",IF(MOD(B419,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B420" s="0" t="n">
         <v>3</v>
@@ -8336,7 +8354,7 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B421" s="0" t="n">
         <v>3</v>
@@ -8350,23 +8368,14 @@
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="B422" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C422" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D422" s="0" t="str">
         <f aca="false">IF(B422="","",IF(MOD(B422,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B423" s="0" t="n">
         <v>3</v>
@@ -8381,7 +8390,7 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B424" s="0" t="n">
         <v>3</v>
@@ -8396,7 +8405,7 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B425" s="0" t="n">
         <v>3</v>
@@ -8411,7 +8420,7 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B426" s="0" t="n">
         <v>3</v>
@@ -8425,9 +8434,18 @@
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="B427" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C427" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D427" s="0" t="str">
         <f aca="false">IF(B427="","",IF(MOD(B427,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8447,7 +8465,7 @@
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B429" s="0" t="n">
         <v>3</v>
@@ -8461,18 +8479,9 @@
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="B430" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C430" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D430" s="0" t="str">
         <f aca="false">IF(B430="","",IF(MOD(B430,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8492,7 +8501,7 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B432" s="0" t="n">
         <v>3</v>
@@ -8507,94 +8516,103 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B433" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C433" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D433" s="0" t="str">
         <f aca="false">IF(B433="","",IF(MOD(B433,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B434" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C434" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D434" s="0" t="str">
         <f aca="false">IF(B434="","",IF(MOD(B434,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="B435" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C435" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D435" s="0" t="str">
         <f aca="false">IF(B435="","",IF(MOD(B435,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B436" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C436" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D436" s="0" t="str">
         <f aca="false">IF(B436="","",IF(MOD(B436,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B437" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C437" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D437" s="0" t="str">
         <f aca="false">IF(B437="","",IF(MOD(B437,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="B438" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C438" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D438" s="0" t="str">
         <f aca="false">IF(B438="","",IF(MOD(B438,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="B439" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C439" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D439" s="0" t="str">
         <f aca="false">IF(B439="","",IF(MOD(B439,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B440" s="0" t="n">
         <v>3</v>
@@ -8609,7 +8627,7 @@
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B441" s="0" t="n">
         <v>3</v>
@@ -8623,23 +8641,14 @@
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="B442" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C442" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D442" s="0" t="str">
         <f aca="false">IF(B442="","",IF(MOD(B442,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B443" s="0" t="n">
         <v>3</v>
@@ -8654,7 +8663,7 @@
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B444" s="0" t="n">
         <v>3</v>
@@ -8669,7 +8678,7 @@
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B445" s="0" t="n">
         <v>3</v>
@@ -8683,14 +8692,23 @@
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B446" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C446" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D446" s="0" t="str">
         <f aca="false">IF(B446="","",IF(MOD(B446,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B447" s="0" t="n">
         <v>3</v>
@@ -8719,18 +8737,9 @@
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="B449" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C449" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D449" s="0" t="str">
         <f aca="false">IF(B449="","",IF(MOD(B449,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8959,23 +8968,38 @@
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="B465" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D465" s="0" t="str">
         <f aca="false">IF(B465="","",IF(MOD(B465,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
+      </c>
+      <c r="B466" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C466" s="0" t="s">
+        <v>203</v>
       </c>
       <c r="D466" s="0" t="str">
         <f aca="false">IF(B466="","",IF(MOD(B466,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B467" s="0" t="n">
         <v>3</v>
@@ -8989,33 +9013,18 @@
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A468" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B468" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C468" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D468" s="0" t="str">
         <f aca="false">IF(B468="","",IF(MOD(B468,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="B469" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C469" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D469" s="0" t="str">
         <f aca="false">IF(B469="","",IF(MOD(B469,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9037,9 +9046,15 @@
       <c r="A471" s="0" t="s">
         <v>430</v>
       </c>
+      <c r="B471" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D471" s="0" t="str">
         <f aca="false">IF(B471="","",IF(MOD(B471,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9076,15 +9091,9 @@
       <c r="A474" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B474" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C474" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D474" s="0" t="str">
         <f aca="false">IF(B474="","",IF(MOD(B474,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9103,14 +9112,23 @@
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B476" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C476" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D476" s="0" t="str">
         <f aca="false">IF(B476="","",IF(MOD(B476,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B477" s="0" t="n">
         <v>3</v>
@@ -9125,7 +9143,7 @@
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B478" s="0" t="n">
         <v>3</v>
@@ -9139,18 +9157,9 @@
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A479" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="B479" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C479" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D479" s="0" t="str">
         <f aca="false">IF(B479="","",IF(MOD(B479,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9424,14 +9433,23 @@
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B498" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C498" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D498" s="0" t="str">
         <f aca="false">IF(B498="","",IF(MOD(B498,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B499" s="0" t="n">
         <v>3</v>
@@ -9446,7 +9464,7 @@
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B500" s="0" t="n">
         <v>3</v>
@@ -9460,18 +9478,9 @@
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A501" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="B501" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C501" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D501" s="0" t="str">
         <f aca="false">IF(B501="","",IF(MOD(B501,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9490,60 +9499,60 @@
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B503" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C503" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D503" s="0" t="str">
         <f aca="false">IF(B503="","",IF(MOD(B503,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="B504" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C504" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D504" s="0" t="str">
         <f aca="false">IF(B504="","",IF(MOD(B504,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B505" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C505" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D505" s="0" t="str">
         <f aca="false">IF(B505="","",IF(MOD(B505,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="B506" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C506" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D506" s="0" t="str">
         <f aca="false">IF(B506="","",IF(MOD(B506,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="B507" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C507" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D507" s="0" t="str">
         <f aca="false">IF(B507="","",IF(MOD(B507,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9551,14 +9560,14 @@
         <v>463</v>
       </c>
       <c r="B508" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C508" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D508" s="0" t="str">
         <f aca="false">IF(B508="","",IF(MOD(B508,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9581,14 +9590,14 @@
         <v>465</v>
       </c>
       <c r="B510" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C510" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D510" s="0" t="str">
         <f aca="false">IF(B510="","",IF(MOD(B510,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9596,14 +9605,14 @@
         <v>466</v>
       </c>
       <c r="B511" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C511" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D511" s="0" t="str">
         <f aca="false">IF(B511="","",IF(MOD(B511,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9641,10 +9650,10 @@
         <v>469</v>
       </c>
       <c r="B514" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C514" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D514" s="0" t="str">
         <f aca="false">IF(B514="","",IF(MOD(B514,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -9652,54 +9661,54 @@
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="B515" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C515" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D515" s="0" t="str">
         <f aca="false">IF(B515="","",IF(MOD(B515,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B516" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C516" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D516" s="0" t="str">
         <f aca="false">IF(B516="","",IF(MOD(B516,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B517" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C517" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D517" s="0" t="str">
         <f aca="false">IF(B517="","",IF(MOD(B517,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B518" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C518" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D518" s="0" t="str">
         <f aca="false">IF(B518="","",IF(MOD(B518,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9827,14 +9836,14 @@
         <v>481</v>
       </c>
       <c r="B527" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C527" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D527" s="0" t="str">
         <f aca="false">IF(B527="","",IF(MOD(B527,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9842,14 +9851,14 @@
         <v>482</v>
       </c>
       <c r="B528" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C528" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D528" s="0" t="str">
         <f aca="false">IF(B528="","",IF(MOD(B528,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9857,19 +9866,19 @@
         <v>483</v>
       </c>
       <c r="B529" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C529" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D529" s="0" t="str">
         <f aca="false">IF(B529="","",IF(MOD(B529,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B530" s="0" t="n">
         <v>0</v>
@@ -9884,7 +9893,7 @@
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B531" s="0" t="n">
         <v>0</v>
@@ -9899,13 +9908,13 @@
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B532" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C532" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D532" s="0" t="str">
         <f aca="false">IF(B532="","",IF(MOD(B532,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -9917,10 +9926,10 @@
         <v>486</v>
       </c>
       <c r="B533" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C533" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D533" s="0" t="str">
         <f aca="false">IF(B533="","",IF(MOD(B533,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -9932,10 +9941,10 @@
         <v>487</v>
       </c>
       <c r="B534" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C534" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D534" s="0" t="str">
         <f aca="false">IF(B534="","",IF(MOD(B534,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10169,7 +10178,7 @@
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B550" s="0" t="n">
         <v>2</v>
@@ -10184,7 +10193,7 @@
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B551" s="0" t="n">
         <v>2</v>
@@ -10199,7 +10208,7 @@
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B552" s="0" t="n">
         <v>2</v>
@@ -10232,10 +10241,10 @@
         <v>504</v>
       </c>
       <c r="B554" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C554" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D554" s="0" t="str">
         <f aca="false">IF(B554="","",IF(MOD(B554,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10247,10 +10256,10 @@
         <v>505</v>
       </c>
       <c r="B555" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C555" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D555" s="0" t="str">
         <f aca="false">IF(B555="","",IF(MOD(B555,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10262,10 +10271,10 @@
         <v>506</v>
       </c>
       <c r="B556" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C556" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D556" s="0" t="str">
         <f aca="false">IF(B556="","",IF(MOD(B556,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10277,10 +10286,10 @@
         <v>507</v>
       </c>
       <c r="B557" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C557" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D557" s="0" t="str">
         <f aca="false">IF(B557="","",IF(MOD(B557,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10288,20 +10297,38 @@
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="0" t="s">
+        <v>508</v>
+      </c>
+      <c r="B558" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C558" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D558" s="0" t="str">
         <f aca="false">IF(B558="","",IF(MOD(B558,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="0" t="s">
+        <v>509</v>
+      </c>
+      <c r="B559" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C559" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D559" s="0" t="str">
         <f aca="false">IF(B559="","",IF(MOD(B559,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B560" s="0" t="n">
         <v>2</v>
@@ -10315,33 +10342,15 @@
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="0" t="s">
-        <v>509</v>
-      </c>
-      <c r="B561" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C561" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D561" s="0" t="str">
         <f aca="false">IF(B561="","",IF(MOD(B561,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="B562" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C562" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D562" s="0" t="str">
         <f aca="false">IF(B562="","",IF(MOD(B562,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10544,10 +10553,10 @@
         <v>524</v>
       </c>
       <c r="B576" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C576" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D576" s="0" t="str">
         <f aca="false">IF(B576="","",IF(MOD(B576,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10574,10 +10583,10 @@
         <v>526</v>
       </c>
       <c r="B578" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C578" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D578" s="0" t="str">
         <f aca="false">IF(B578="","",IF(MOD(B578,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10604,10 +10613,10 @@
         <v>528</v>
       </c>
       <c r="B580" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C580" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D580" s="0" t="str">
         <f aca="false">IF(B580="","",IF(MOD(B580,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10634,10 +10643,10 @@
         <v>530</v>
       </c>
       <c r="B582" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C582" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D582" s="0" t="str">
         <f aca="false">IF(B582="","",IF(MOD(B582,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10679,10 +10688,10 @@
         <v>533</v>
       </c>
       <c r="B585" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C585" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D585" s="0" t="str">
         <f aca="false">IF(B585="","",IF(MOD(B585,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10705,26 +10714,44 @@
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B587" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C587" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D587" s="0" t="str">
         <f aca="false">IF(B587="","",IF(MOD(B587,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="B588" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C588" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D588" s="0" t="str">
         <f aca="false">IF(B588="","",IF(MOD(B588,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B589" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C589" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D589" s="0" t="str">
         <f aca="false">IF(B589="","",IF(MOD(B589,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10732,33 +10759,15 @@
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="0" t="s">
-        <v>536</v>
-      </c>
-      <c r="B590" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C590" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D590" s="0" t="str">
         <f aca="false">IF(B590="","",IF(MOD(B590,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="B591" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C591" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D591" s="0" t="str">
         <f aca="false">IF(B591="","",IF(MOD(B591,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10856,10 +10865,10 @@
         <v>544</v>
       </c>
       <c r="B598" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C598" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D598" s="0" t="str">
         <f aca="false">IF(B598="","",IF(MOD(B598,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10871,10 +10880,10 @@
         <v>545</v>
       </c>
       <c r="B599" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C599" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D599" s="0" t="str">
         <f aca="false">IF(B599="","",IF(MOD(B599,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10886,10 +10895,10 @@
         <v>546</v>
       </c>
       <c r="B600" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C600" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D600" s="0" t="str">
         <f aca="false">IF(B600="","",IF(MOD(B600,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10916,10 +10925,10 @@
         <v>548</v>
       </c>
       <c r="B602" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C602" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D602" s="0" t="str">
         <f aca="false">IF(B602="","",IF(MOD(B602,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10961,10 +10970,10 @@
         <v>551</v>
       </c>
       <c r="B605" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C605" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D605" s="0" t="str">
         <f aca="false">IF(B605="","",IF(MOD(B605,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -10987,26 +10996,44 @@
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B607" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C607" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D607" s="0" t="str">
         <f aca="false">IF(B607="","",IF(MOD(B607,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="B608" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C608" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D608" s="0" t="str">
         <f aca="false">IF(B608="","",IF(MOD(B608,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B609" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C609" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D609" s="0" t="str">
         <f aca="false">IF(B609="","",IF(MOD(B609,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11014,33 +11041,15 @@
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="0" t="s">
-        <v>554</v>
-      </c>
-      <c r="B610" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C610" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D610" s="0" t="str">
         <f aca="false">IF(B610="","",IF(MOD(B610,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="0" t="s">
-        <v>555</v>
-      </c>
-      <c r="B611" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C611" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D611" s="0" t="str">
         <f aca="false">IF(B611="","",IF(MOD(B611,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11138,10 +11147,10 @@
         <v>562</v>
       </c>
       <c r="B618" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C618" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D618" s="0" t="str">
         <f aca="false">IF(B618="","",IF(MOD(B618,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11153,10 +11162,10 @@
         <v>563</v>
       </c>
       <c r="B619" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C619" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D619" s="0" t="str">
         <f aca="false">IF(B619="","",IF(MOD(B619,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11168,10 +11177,10 @@
         <v>564</v>
       </c>
       <c r="B620" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C620" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D620" s="0" t="str">
         <f aca="false">IF(B620="","",IF(MOD(B620,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11198,10 +11207,10 @@
         <v>566</v>
       </c>
       <c r="B622" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C622" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D622" s="0" t="str">
         <f aca="false">IF(B622="","",IF(MOD(B622,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11243,10 +11252,10 @@
         <v>569</v>
       </c>
       <c r="B625" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C625" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D625" s="0" t="str">
         <f aca="false">IF(B625="","",IF(MOD(B625,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11269,20 +11278,29 @@
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B627" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C627" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D627" s="0" t="str">
         <f aca="false">IF(B627="","",IF(MOD(B627,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B628" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C628" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D628" s="0" t="str">
         <f aca="false">IF(B628="","",IF(MOD(B628,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11291,13 +11309,13 @@
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B629" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C629" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D629" s="0" t="str">
         <f aca="false">IF(B629="","",IF(MOD(B629,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11305,18 +11323,9 @@
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="0" t="s">
-        <v>573</v>
-      </c>
-      <c r="B630" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C630" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D630" s="0" t="str">
         <f aca="false">IF(B630="","",IF(MOD(B630,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11324,10 +11333,10 @@
         <v>574</v>
       </c>
       <c r="B631" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C631" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D631" s="0" t="str">
         <f aca="false">IF(B631="","",IF(MOD(B631,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11384,10 +11393,10 @@
         <v>578</v>
       </c>
       <c r="B635" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C635" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D635" s="0" t="str">
         <f aca="false">IF(B635="","",IF(MOD(B635,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11414,10 +11423,10 @@
         <v>580</v>
       </c>
       <c r="B637" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C637" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D637" s="0" t="str">
         <f aca="false">IF(B637="","",IF(MOD(B637,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11459,10 +11468,10 @@
         <v>583</v>
       </c>
       <c r="B640" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C640" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D640" s="0" t="str">
         <f aca="false">IF(B640="","",IF(MOD(B640,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11485,26 +11494,44 @@
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="0" t="s">
+        <v>585</v>
+      </c>
+      <c r="B642" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C642" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D642" s="0" t="str">
         <f aca="false">IF(B642="","",IF(MOD(B642,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B643" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C643" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D643" s="0" t="str">
         <f aca="false">IF(B643="","",IF(MOD(B643,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B644" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C644" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D644" s="0" t="str">
         <f aca="false">IF(B644="","",IF(MOD(B644,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11512,33 +11539,15 @@
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="0" t="s">
-        <v>586</v>
-      </c>
-      <c r="B645" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C645" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D645" s="0" t="str">
         <f aca="false">IF(B645="","",IF(MOD(B645,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="0" t="s">
-        <v>587</v>
-      </c>
-      <c r="B646" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C646" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D646" s="0" t="str">
         <f aca="false">IF(B646="","",IF(MOD(B646,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11636,10 +11645,10 @@
         <v>594</v>
       </c>
       <c r="B653" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C653" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D653" s="0" t="str">
         <f aca="false">IF(B653="","",IF(MOD(B653,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11651,10 +11660,10 @@
         <v>595</v>
       </c>
       <c r="B654" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C654" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D654" s="0" t="str">
         <f aca="false">IF(B654="","",IF(MOD(B654,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11666,10 +11675,10 @@
         <v>596</v>
       </c>
       <c r="B655" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C655" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D655" s="0" t="str">
         <f aca="false">IF(B655="","",IF(MOD(B655,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11696,10 +11705,10 @@
         <v>598</v>
       </c>
       <c r="B657" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C657" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D657" s="0" t="str">
         <f aca="false">IF(B657="","",IF(MOD(B657,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11741,10 +11750,10 @@
         <v>601</v>
       </c>
       <c r="B660" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C660" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D660" s="0" t="str">
         <f aca="false">IF(B660="","",IF(MOD(B660,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11767,20 +11776,29 @@
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B662" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C662" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D662" s="0" t="str">
         <f aca="false">IF(B662="","",IF(MOD(B662,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B663" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C663" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D663" s="0" t="str">
         <f aca="false">IF(B663="","",IF(MOD(B663,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11789,13 +11807,13 @@
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B664" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C664" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D664" s="0" t="str">
         <f aca="false">IF(B664="","",IF(MOD(B664,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11803,18 +11821,9 @@
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="0" t="s">
-        <v>605</v>
-      </c>
-      <c r="B665" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C665" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D665" s="0" t="str">
         <f aca="false">IF(B665="","",IF(MOD(B665,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11837,10 +11846,10 @@
         <v>607</v>
       </c>
       <c r="B667" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C667" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D667" s="0" t="str">
         <f aca="false">IF(B667="","",IF(MOD(B667,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11867,10 +11876,10 @@
         <v>609</v>
       </c>
       <c r="B669" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C669" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D669" s="0" t="str">
         <f aca="false">IF(B669="","",IF(MOD(B669,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11897,10 +11906,10 @@
         <v>611</v>
       </c>
       <c r="B671" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C671" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D671" s="0" t="str">
         <f aca="false">IF(B671="","",IF(MOD(B671,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11927,10 +11936,10 @@
         <v>613</v>
       </c>
       <c r="B673" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C673" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D673" s="0" t="str">
         <f aca="false">IF(B673="","",IF(MOD(B673,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11942,10 +11951,10 @@
         <v>614</v>
       </c>
       <c r="B674" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C674" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D674" s="0" t="str">
         <f aca="false">IF(B674="","",IF(MOD(B674,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -11957,10 +11966,10 @@
         <v>615</v>
       </c>
       <c r="B675" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C675" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D675" s="0" t="str">
         <f aca="false">IF(B675="","",IF(MOD(B675,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12002,10 +12011,10 @@
         <v>618</v>
       </c>
       <c r="B678" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C678" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D678" s="0" t="str">
         <f aca="false">IF(B678="","",IF(MOD(B678,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12017,10 +12026,10 @@
         <v>619</v>
       </c>
       <c r="B679" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C679" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D679" s="0" t="str">
         <f aca="false">IF(B679="","",IF(MOD(B679,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12032,10 +12041,10 @@
         <v>620</v>
       </c>
       <c r="B680" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C680" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D680" s="0" t="str">
         <f aca="false">IF(B680="","",IF(MOD(B680,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12058,26 +12067,44 @@
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B682" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C682" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D682" s="0" t="str">
         <f aca="false">IF(B682="","",IF(MOD(B682,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B683" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C683" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D683" s="0" t="str">
         <f aca="false">IF(B683="","",IF(MOD(B683,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B684" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C684" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D684" s="0" t="str">
         <f aca="false">IF(B684="","",IF(MOD(B684,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12085,33 +12112,15 @@
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="B685" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C685" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D685" s="0" t="str">
         <f aca="false">IF(B685="","",IF(MOD(B685,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="B686" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C686" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D686" s="0" t="str">
         <f aca="false">IF(B686="","",IF(MOD(B686,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12119,10 +12128,10 @@
         <v>625</v>
       </c>
       <c r="B687" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C687" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D687" s="0" t="str">
         <f aca="false">IF(B687="","",IF(MOD(B687,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12145,21 +12154,48 @@
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="B689" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C689" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D689" s="0" t="str">
         <f aca="false">IF(B689="","",IF(MOD(B689,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B690" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C690" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D690" s="0" t="str">
         <f aca="false">IF(B690="","",IF(MOD(B690,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="B691" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C691" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D691" s="0" t="str">
         <f aca="false">IF(B691="","",IF(MOD(B691,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12169,48 +12205,21 @@
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="0" t="s">
-        <v>627</v>
-      </c>
-      <c r="B693" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C693" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D693" s="0" t="str">
         <f aca="false">IF(B693="","",IF(MOD(B693,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="B694" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C694" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D694" s="0" t="str">
         <f aca="false">IF(B694="","",IF(MOD(B694,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="B695" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C695" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D695" s="0" t="str">
         <f aca="false">IF(B695="","",IF(MOD(B695,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12218,71 +12227,71 @@
         <v>630</v>
       </c>
       <c r="B696" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C696" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D696" s="0" t="str">
         <f aca="false">IF(B696="","",IF(MOD(B696,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B697" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C697" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D697" s="0" t="str">
         <f aca="false">IF(B697="","",IF(MOD(B697,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B698" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C698" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D698" s="0" t="str">
         <f aca="false">IF(B698="","",IF(MOD(B698,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B699" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C699" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D699" s="0" t="str">
         <f aca="false">IF(B699="","",IF(MOD(B699,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="B700" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C700" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D700" s="0" t="str">
         <f aca="false">IF(B700="","",IF(MOD(B700,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="0" t="s">
-        <v>633</v>
-      </c>
-      <c r="B701" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C701" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D701" s="0" t="str">
         <f aca="false">IF(B701="","",IF(MOD(B701,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12320,10 +12329,10 @@
         <v>636</v>
       </c>
       <c r="B704" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C704" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D704" s="0" t="str">
         <f aca="false">IF(B704="","",IF(MOD(B704,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12395,10 +12404,10 @@
         <v>641</v>
       </c>
       <c r="B709" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C709" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D709" s="0" t="str">
         <f aca="false">IF(B709="","",IF(MOD(B709,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12410,10 +12419,10 @@
         <v>642</v>
       </c>
       <c r="B710" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C710" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D710" s="0" t="str">
         <f aca="false">IF(B710="","",IF(MOD(B710,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12425,10 +12434,10 @@
         <v>643</v>
       </c>
       <c r="B711" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C711" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D711" s="0" t="str">
         <f aca="false">IF(B711="","",IF(MOD(B711,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12440,10 +12449,10 @@
         <v>644</v>
       </c>
       <c r="B712" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C712" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D712" s="0" t="str">
         <f aca="false">IF(B712="","",IF(MOD(B712,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12455,10 +12464,10 @@
         <v>645</v>
       </c>
       <c r="B713" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C713" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D713" s="0" t="str">
         <f aca="false">IF(B713="","",IF(MOD(B713,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12470,10 +12479,10 @@
         <v>646</v>
       </c>
       <c r="B714" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C714" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D714" s="0" t="str">
         <f aca="false">IF(B714="","",IF(MOD(B714,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12497,13 +12506,13 @@
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B716" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C716" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D716" s="0" t="str">
         <f aca="false">IF(B716="","",IF(MOD(B716,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12512,7 +12521,7 @@
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B717" s="0" t="n">
         <v>2</v>
@@ -12527,7 +12536,7 @@
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B718" s="0" t="n">
         <v>2</v>
@@ -12542,7 +12551,7 @@
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B719" s="0" t="n">
         <v>2</v>
@@ -12575,10 +12584,10 @@
         <v>652</v>
       </c>
       <c r="B721" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C721" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D721" s="0" t="str">
         <f aca="false">IF(B721="","",IF(MOD(B721,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12635,10 +12644,10 @@
         <v>656</v>
       </c>
       <c r="B725" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C725" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D725" s="0" t="str">
         <f aca="false">IF(B725="","",IF(MOD(B725,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12665,10 +12674,10 @@
         <v>658</v>
       </c>
       <c r="B727" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C727" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D727" s="0" t="str">
         <f aca="false">IF(B727="","",IF(MOD(B727,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12725,10 +12734,10 @@
         <v>662</v>
       </c>
       <c r="B731" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C731" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D731" s="0" t="str">
         <f aca="false">IF(B731="","",IF(MOD(B731,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12755,10 +12764,10 @@
         <v>664</v>
       </c>
       <c r="B733" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C733" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D733" s="0" t="str">
         <f aca="false">IF(B733="","",IF(MOD(B733,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12815,10 +12824,10 @@
         <v>668</v>
       </c>
       <c r="B737" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C737" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D737" s="0" t="str">
         <f aca="false">IF(B737="","",IF(MOD(B737,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12845,14 +12854,14 @@
         <v>670</v>
       </c>
       <c r="B739" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C739" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D739" s="0" t="str">
         <f aca="false">IF(B739="","",IF(MOD(B739,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12860,10 +12869,10 @@
         <v>671</v>
       </c>
       <c r="B740" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C740" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D740" s="0" t="str">
         <f aca="false">IF(B740="","",IF(MOD(B740,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12875,10 +12884,10 @@
         <v>672</v>
       </c>
       <c r="B741" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C741" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D741" s="0" t="str">
         <f aca="false">IF(B741="","",IF(MOD(B741,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12890,14 +12899,14 @@
         <v>673</v>
       </c>
       <c r="B742" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C742" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D742" s="0" t="str">
         <f aca="false">IF(B742="","",IF(MOD(B742,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12905,10 +12914,10 @@
         <v>674</v>
       </c>
       <c r="B743" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C743" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D743" s="0" t="str">
         <f aca="false">IF(B743="","",IF(MOD(B743,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12920,10 +12929,10 @@
         <v>675</v>
       </c>
       <c r="B744" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C744" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D744" s="0" t="str">
         <f aca="false">IF(B744="","",IF(MOD(B744,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12935,10 +12944,10 @@
         <v>676</v>
       </c>
       <c r="B745" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C745" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D745" s="0" t="str">
         <f aca="false">IF(B745="","",IF(MOD(B745,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -12946,14 +12955,23 @@
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A746" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="B746" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C746" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D746" s="0" t="str">
         <f aca="false">IF(B746="","",IF(MOD(B746,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B747" s="0" t="n">
         <v>2</v>
@@ -12968,7 +12986,7 @@
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B748" s="0" t="n">
         <v>0</v>
@@ -12982,18 +13000,9 @@
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="0" t="s">
-        <v>679</v>
-      </c>
-      <c r="B749" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C749" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D749" s="0" t="str">
         <f aca="false">IF(B749="","",IF(MOD(B749,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13001,10 +13010,10 @@
         <v>680</v>
       </c>
       <c r="B750" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C750" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D750" s="0" t="str">
         <f aca="false">IF(B750="","",IF(MOD(B750,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13012,14 +13021,23 @@
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A751" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="B751" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C751" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D751" s="0" t="str">
         <f aca="false">IF(B751="","",IF(MOD(B751,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B752" s="0" t="n">
         <v>2</v>
@@ -13034,7 +13052,7 @@
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B753" s="0" t="n">
         <v>0</v>
@@ -13048,18 +13066,9 @@
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A754" s="0" t="s">
-        <v>683</v>
-      </c>
-      <c r="B754" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C754" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D754" s="0" t="str">
         <f aca="false">IF(B754="","",IF(MOD(B754,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13067,10 +13076,10 @@
         <v>684</v>
       </c>
       <c r="B755" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C755" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D755" s="0" t="str">
         <f aca="false">IF(B755="","",IF(MOD(B755,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13082,10 +13091,10 @@
         <v>685</v>
       </c>
       <c r="B756" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C756" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D756" s="0" t="str">
         <f aca="false">IF(B756="","",IF(MOD(B756,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13097,10 +13106,10 @@
         <v>686</v>
       </c>
       <c r="B757" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C757" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D757" s="0" t="str">
         <f aca="false">IF(B757="","",IF(MOD(B757,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13112,10 +13121,10 @@
         <v>687</v>
       </c>
       <c r="B758" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C758" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D758" s="0" t="str">
         <f aca="false">IF(B758="","",IF(MOD(B758,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13127,10 +13136,10 @@
         <v>688</v>
       </c>
       <c r="B759" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C759" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D759" s="0" t="str">
         <f aca="false">IF(B759="","",IF(MOD(B759,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13142,10 +13151,10 @@
         <v>689</v>
       </c>
       <c r="B760" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C760" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D760" s="0" t="str">
         <f aca="false">IF(B760="","",IF(MOD(B760,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13157,10 +13166,10 @@
         <v>690</v>
       </c>
       <c r="B761" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C761" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D761" s="0" t="str">
         <f aca="false">IF(B761="","",IF(MOD(B761,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13172,10 +13181,10 @@
         <v>691</v>
       </c>
       <c r="B762" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C762" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D762" s="0" t="str">
         <f aca="false">IF(B762="","",IF(MOD(B762,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13187,10 +13196,10 @@
         <v>692</v>
       </c>
       <c r="B763" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C763" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D763" s="0" t="str">
         <f aca="false">IF(B763="","",IF(MOD(B763,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13202,10 +13211,10 @@
         <v>693</v>
       </c>
       <c r="B764" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C764" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D764" s="0" t="str">
         <f aca="false">IF(B764="","",IF(MOD(B764,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13217,10 +13226,10 @@
         <v>694</v>
       </c>
       <c r="B765" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C765" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D765" s="0" t="str">
         <f aca="false">IF(B765="","",IF(MOD(B765,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13232,10 +13241,10 @@
         <v>695</v>
       </c>
       <c r="B766" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C766" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D766" s="0" t="str">
         <f aca="false">IF(B766="","",IF(MOD(B766,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13247,10 +13256,10 @@
         <v>696</v>
       </c>
       <c r="B767" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C767" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D767" s="0" t="str">
         <f aca="false">IF(B767="","",IF(MOD(B767,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13259,13 +13268,13 @@
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B768" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C768" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D768" s="0" t="str">
         <f aca="false">IF(B768="","",IF(MOD(B768,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13274,7 +13283,7 @@
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B769" s="0" t="n">
         <v>2</v>
@@ -13289,7 +13298,7 @@
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B770" s="0" t="n">
         <v>0</v>
@@ -13304,7 +13313,7 @@
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B771" s="0" t="n">
         <v>2</v>
@@ -13322,10 +13331,10 @@
         <v>700</v>
       </c>
       <c r="B772" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C772" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D772" s="0" t="str">
         <f aca="false">IF(B772="","",IF(MOD(B772,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13367,10 +13376,10 @@
         <v>703</v>
       </c>
       <c r="B775" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C775" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D775" s="0" t="str">
         <f aca="false">IF(B775="","",IF(MOD(B775,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13378,66 +13387,66 @@
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A776" s="0" t="s">
+        <v>704</v>
+      </c>
+      <c r="B776" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C776" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D776" s="0" t="str">
         <f aca="false">IF(B776="","",IF(MOD(B776,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A777" s="0" t="s">
+        <v>705</v>
+      </c>
+      <c r="B777" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C777" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D777" s="0" t="str">
         <f aca="false">IF(B777="","",IF(MOD(B777,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A778" s="0" t="s">
+        <v>706</v>
+      </c>
+      <c r="B778" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C778" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D778" s="0" t="str">
         <f aca="false">IF(B778="","",IF(MOD(B778,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="B779" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C779" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D779" s="0" t="str">
         <f aca="false">IF(B779="","",IF(MOD(B779,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A780" s="0" t="s">
-        <v>705</v>
-      </c>
-      <c r="B780" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C780" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D780" s="0" t="str">
         <f aca="false">IF(B780="","",IF(MOD(B780,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A781" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="B781" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C781" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D781" s="0" t="str">
         <f aca="false">IF(B781="","",IF(MOD(B781,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13460,10 +13469,10 @@
         <v>708</v>
       </c>
       <c r="B783" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C783" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D783" s="0" t="str">
         <f aca="false">IF(B783="","",IF(MOD(B783,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13505,10 +13514,10 @@
         <v>711</v>
       </c>
       <c r="B786" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C786" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D786" s="0" t="str">
         <f aca="false">IF(B786="","",IF(MOD(B786,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13516,14 +13525,23 @@
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A787" s="0" t="s">
+        <v>712</v>
+      </c>
+      <c r="B787" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C787" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D787" s="0" t="str">
         <f aca="false">IF(B787="","",IF(MOD(B787,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B788" s="0" t="n">
         <v>2</v>
@@ -13538,13 +13556,13 @@
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B789" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C789" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D789" s="0" t="str">
         <f aca="false">IF(B789="","",IF(MOD(B789,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13552,18 +13570,9 @@
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A790" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="B790" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C790" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D790" s="0" t="str">
         <f aca="false">IF(B790="","",IF(MOD(B790,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13571,10 +13580,10 @@
         <v>715</v>
       </c>
       <c r="B791" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C791" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D791" s="0" t="str">
         <f aca="false">IF(B791="","",IF(MOD(B791,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13582,20 +13591,29 @@
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A792" s="0" t="s">
+        <v>716</v>
+      </c>
+      <c r="B792" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C792" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D792" s="0" t="str">
         <f aca="false">IF(B792="","",IF(MOD(B792,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B793" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C793" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D793" s="0" t="str">
         <f aca="false">IF(B793="","",IF(MOD(B793,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13604,13 +13622,13 @@
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B794" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C794" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D794" s="0" t="str">
         <f aca="false">IF(B794="","",IF(MOD(B794,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13618,18 +13636,9 @@
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A795" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="B795" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C795" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D795" s="0" t="str">
         <f aca="false">IF(B795="","",IF(MOD(B795,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13637,10 +13646,10 @@
         <v>719</v>
       </c>
       <c r="B796" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C796" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D796" s="0" t="str">
         <f aca="false">IF(B796="","",IF(MOD(B796,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13652,14 +13661,14 @@
         <v>720</v>
       </c>
       <c r="B797" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C797" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D797" s="0" t="str">
         <f aca="false">IF(B797="","",IF(MOD(B797,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13667,10 +13676,10 @@
         <v>721</v>
       </c>
       <c r="B798" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C798" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D798" s="0" t="str">
         <f aca="false">IF(B798="","",IF(MOD(B798,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13682,10 +13691,10 @@
         <v>722</v>
       </c>
       <c r="B799" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C799" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D799" s="0" t="str">
         <f aca="false">IF(B799="","",IF(MOD(B799,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13697,14 +13706,14 @@
         <v>723</v>
       </c>
       <c r="B800" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C800" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D800" s="0" t="str">
         <f aca="false">IF(B800="","",IF(MOD(B800,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13757,10 +13766,10 @@
         <v>727</v>
       </c>
       <c r="B804" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C804" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D804" s="0" t="str">
         <f aca="false">IF(B804="","",IF(MOD(B804,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13772,14 +13781,14 @@
         <v>728</v>
       </c>
       <c r="B805" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C805" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D805" s="0" t="str">
         <f aca="false">IF(B805="","",IF(MOD(B805,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13787,14 +13796,14 @@
         <v>729</v>
       </c>
       <c r="B806" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C806" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D806" s="0" t="str">
         <f aca="false">IF(B806="","",IF(MOD(B806,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13802,14 +13811,14 @@
         <v>730</v>
       </c>
       <c r="B807" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C807" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D807" s="0" t="str">
         <f aca="false">IF(B807="","",IF(MOD(B807,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13828,71 +13837,71 @@
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A809" s="0" t="s">
+        <v>732</v>
+      </c>
+      <c r="B809" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C809" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D809" s="0" t="str">
         <f aca="false">IF(B809="","",IF(MOD(B809,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A810" s="0" t="s">
+        <v>733</v>
+      </c>
+      <c r="B810" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C810" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D810" s="0" t="str">
         <f aca="false">IF(B810="","",IF(MOD(B810,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A811" s="0" t="s">
+        <v>734</v>
+      </c>
+      <c r="B811" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C811" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D811" s="0" t="str">
         <f aca="false">IF(B811="","",IF(MOD(B811,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A812" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="B812" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C812" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D812" s="0" t="str">
         <f aca="false">IF(B812="","",IF(MOD(B812,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A813" s="0" t="s">
-        <v>733</v>
-      </c>
-      <c r="B813" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C813" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D813" s="0" t="str">
         <f aca="false">IF(B813="","",IF(MOD(B813,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A814" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="B814" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C814" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D814" s="0" t="str">
         <f aca="false">IF(B814="","",IF(MOD(B814,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B815" s="0" t="n">
         <v>2</v>
@@ -13907,13 +13916,13 @@
     </row>
     <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B816" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C816" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D816" s="0" t="str">
         <f aca="false">IF(B816="","",IF(MOD(B816,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13922,17 +13931,17 @@
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B817" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C817" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D817" s="0" t="str">
         <f aca="false">IF(B817="","",IF(MOD(B817,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13940,10 +13949,10 @@
         <v>737</v>
       </c>
       <c r="B818" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C818" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D818" s="0" t="str">
         <f aca="false">IF(B818="","",IF(MOD(B818,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13955,10 +13964,10 @@
         <v>738</v>
       </c>
       <c r="B819" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C819" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D819" s="0" t="str">
         <f aca="false">IF(B819="","",IF(MOD(B819,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -13970,14 +13979,14 @@
         <v>739</v>
       </c>
       <c r="B820" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C820" s="0" t="s">
         <v>35</v>
       </c>
       <c r="D820" s="0" t="str">
         <f aca="false">IF(B820="","",IF(MOD(B820,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14026,20 +14035,29 @@
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A824" s="0" t="s">
+        <v>743</v>
+      </c>
+      <c r="B824" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C824" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D824" s="0" t="str">
         <f aca="false">IF(B824="","",IF(MOD(B824,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B825" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C825" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D825" s="0" t="str">
         <f aca="false">IF(B825="","",IF(MOD(B825,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14048,13 +14066,13 @@
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B826" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C826" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D826" s="0" t="str">
         <f aca="false">IF(B826="","",IF(MOD(B826,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14062,18 +14080,9 @@
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A827" s="0" t="s">
-        <v>745</v>
-      </c>
-      <c r="B827" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C827" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D827" s="0" t="str">
         <f aca="false">IF(B827="","",IF(MOD(B827,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14126,10 +14135,10 @@
         <v>749</v>
       </c>
       <c r="B831" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C831" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D831" s="0" t="str">
         <f aca="false">IF(B831="","",IF(MOD(B831,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14141,10 +14150,10 @@
         <v>750</v>
       </c>
       <c r="B832" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C832" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D832" s="0" t="str">
         <f aca="false">IF(B832="","",IF(MOD(B832,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14156,10 +14165,10 @@
         <v>751</v>
       </c>
       <c r="B833" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C833" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D833" s="0" t="str">
         <f aca="false">IF(B833="","",IF(MOD(B833,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14171,10 +14180,10 @@
         <v>752</v>
       </c>
       <c r="B834" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C834" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D834" s="0" t="str">
         <f aca="false">IF(B834="","",IF(MOD(B834,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14186,10 +14195,10 @@
         <v>753</v>
       </c>
       <c r="B835" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C835" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D835" s="0" t="str">
         <f aca="false">IF(B835="","",IF(MOD(B835,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14201,10 +14210,10 @@
         <v>754</v>
       </c>
       <c r="B836" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C836" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D836" s="0" t="str">
         <f aca="false">IF(B836="","",IF(MOD(B836,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14242,54 +14251,54 @@
       </c>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A839" s="0" t="s">
+        <v>757</v>
+      </c>
+      <c r="B839" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C839" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D839" s="0" t="str">
         <f aca="false">IF(B839="","",IF(MOD(B839,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B840" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C840" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D840" s="0" t="str">
         <f aca="false">IF(B840="","",IF(MOD(B840,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B841" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D841" s="0" t="str">
         <f aca="false">IF(B841="","",IF(MOD(B841,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A842" s="0" t="s">
-        <v>759</v>
-      </c>
-      <c r="B842" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C842" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D842" s="0" t="str">
         <f aca="false">IF(B842="","",IF(MOD(B842,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14398,39 +14407,48 @@
       </c>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A850" s="0" t="s">
+        <v>767</v>
+      </c>
+      <c r="B850" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C850" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D850" s="0" t="str">
         <f aca="false">IF(B850="","",IF(MOD(B850,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B851" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C851" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D851" s="0" t="str">
         <f aca="false">IF(B851="","",IF(MOD(B851,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="0" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B852" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C852" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D852" s="0" t="str">
         <f aca="false">IF(B852="","",IF(MOD(B852,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14441,7 +14459,7 @@
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="0" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B854" s="0" t="n">
         <v>2</v>
@@ -14456,32 +14474,23 @@
     </row>
     <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B855" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C855" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D855" s="0" t="str">
         <f aca="false">IF(B855="","",IF(MOD(B855,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A856" s="0" t="s">
-        <v>771</v>
-      </c>
-      <c r="B856" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C856" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D856" s="0" t="str">
         <f aca="false">IF(B856="","",IF(MOD(B856,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14489,10 +14498,10 @@
         <v>772</v>
       </c>
       <c r="B857" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C857" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D857" s="0" t="str">
         <f aca="false">IF(B857="","",IF(MOD(B857,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14504,14 +14513,14 @@
         <v>773</v>
       </c>
       <c r="B858" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C858" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D858" s="0" t="str">
         <f aca="false">IF(B858="","",IF(MOD(B858,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14534,82 +14543,91 @@
         <v>775</v>
       </c>
       <c r="B860" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C860" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D860" s="0" t="str">
         <f aca="false">IF(B860="","",IF(MOD(B860,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A861" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="B861" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C861" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D861" s="0" t="str">
         <f aca="false">IF(B861="","",IF(MOD(B861,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A862" s="0" t="s">
+        <v>777</v>
+      </c>
+      <c r="B862" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C862" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D862" s="0" t="str">
         <f aca="false">IF(B862="","",IF(MOD(B862,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B863" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C863" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D863" s="0" t="str">
         <f aca="false">IF(B863="","",IF(MOD(B863,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="B864" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C864" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D864" s="0" t="str">
         <f aca="false">IF(B864="","",IF(MOD(B864,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A865" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="B865" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C865" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D865" s="0" t="str">
         <f aca="false">IF(B865="","",IF(MOD(B865,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A866" s="0" t="s">
+        <v>779</v>
+      </c>
+      <c r="B866" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C866" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D866" s="0" t="str">
         <f aca="false">IF(B866="","",IF(MOD(B866,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B867" s="0" t="n">
         <v>0</v>
@@ -14624,7 +14642,7 @@
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B868" s="0" t="n">
         <v>0</v>
@@ -14638,35 +14656,44 @@
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A869" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="B869" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C869" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D869" s="0" t="str">
         <f aca="false">IF(B869="","",IF(MOD(B869,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A870" s="0" t="s">
+        <v>782</v>
+      </c>
+      <c r="B870" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C870" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D870" s="0" t="str">
         <f aca="false">IF(B870="","",IF(MOD(B870,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A871" s="0" t="s">
+        <v>783</v>
+      </c>
+      <c r="B871" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C871" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D871" s="0" t="str">
         <f aca="false">IF(B871="","",IF(MOD(B871,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B872" s="0" t="n">
         <v>2</v>
@@ -14680,33 +14707,15 @@
       </c>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A873" s="0" t="s">
-        <v>783</v>
-      </c>
-      <c r="B873" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C873" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D873" s="0" t="str">
         <f aca="false">IF(B873="","",IF(MOD(B873,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A874" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="B874" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C874" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D874" s="0" t="str">
         <f aca="false">IF(B874="","",IF(MOD(B874,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14714,10 +14723,10 @@
         <v>785</v>
       </c>
       <c r="B875" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C875" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D875" s="0" t="str">
         <f aca="false">IF(B875="","",IF(MOD(B875,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14729,10 +14738,10 @@
         <v>786</v>
       </c>
       <c r="B876" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C876" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D876" s="0" t="str">
         <f aca="false">IF(B876="","",IF(MOD(B876,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14744,10 +14753,10 @@
         <v>787</v>
       </c>
       <c r="B877" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C877" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D877" s="0" t="str">
         <f aca="false">IF(B877="","",IF(MOD(B877,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14755,20 +14764,29 @@
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="0" t="s">
+        <v>788</v>
+      </c>
+      <c r="B878" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C878" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D878" s="0" t="str">
         <f aca="false">IF(B878="","",IF(MOD(B878,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B879" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C879" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D879" s="0" t="str">
         <f aca="false">IF(B879="","",IF(MOD(B879,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -14777,32 +14795,23 @@
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B880" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C880" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D880" s="0" t="str">
         <f aca="false">IF(B880="","",IF(MOD(B880,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A881" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="B881" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C881" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D881" s="0" t="str">
         <f aca="false">IF(B881="","",IF(MOD(B881,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14810,14 +14819,14 @@
         <v>791</v>
       </c>
       <c r="B882" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C882" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D882" s="0" t="str">
         <f aca="false">IF(B882="","",IF(MOD(B882,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15121,20 +15130,38 @@
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A903" s="0" t="s">
+        <v>812</v>
+      </c>
+      <c r="B903" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C903" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D903" s="0" t="str">
         <f aca="false">IF(B903="","",IF(MOD(B903,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A904" s="0" t="s">
+        <v>813</v>
+      </c>
+      <c r="B904" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C904" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D904" s="0" t="str">
         <f aca="false">IF(B904="","",IF(MOD(B904,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B905" s="0" t="n">
         <v>3</v>
@@ -15148,33 +15175,15 @@
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A906" s="0" t="s">
-        <v>813</v>
-      </c>
-      <c r="B906" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C906" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D906" s="0" t="str">
         <f aca="false">IF(B906="","",IF(MOD(B906,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A907" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="B907" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C907" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D907" s="0" t="str">
         <f aca="false">IF(B907="","",IF(MOD(B907,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v/>
       </c>
     </row>
     <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15223,65 +15232,74 @@
       </c>
     </row>
     <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="B911" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C911" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D911" s="0" t="str">
         <f aca="false">IF(B911="","",IF(MOD(B911,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B912" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C912" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D912" s="0" t="str">
         <f aca="false">IF(B912="","",IF(MOD(B912,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B913" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C913" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D913" s="0" t="str">
         <f aca="false">IF(B913="","",IF(MOD(B913,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="B914" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C914" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D914" s="0" t="str">
         <f aca="false">IF(B914="","",IF(MOD(B914,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A915" s="0" t="s">
+        <v>821</v>
+      </c>
+      <c r="B915" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C915" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D915" s="0" t="str">
         <f aca="false">IF(B915="","",IF(MOD(B915,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B916" s="0" t="n">
         <v>2</v>
@@ -15296,32 +15314,23 @@
     </row>
     <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B917" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C917" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D917" s="0" t="str">
         <f aca="false">IF(B917="","",IF(MOD(B917,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A918" s="0" t="s">
-        <v>823</v>
-      </c>
-      <c r="B918" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C918" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D918" s="0" t="str">
         <f aca="false">IF(B918="","",IF(MOD(B918,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15329,10 +15338,10 @@
         <v>824</v>
       </c>
       <c r="B919" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C919" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D919" s="0" t="str">
         <f aca="false">IF(B919="","",IF(MOD(B919,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -15344,14 +15353,14 @@
         <v>825</v>
       </c>
       <c r="B920" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C920" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D920" s="0" t="str">
         <f aca="false">IF(B920="","",IF(MOD(B920,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15359,31 +15368,40 @@
         <v>826</v>
       </c>
       <c r="B921" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C921" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D921" s="0" t="str">
         <f aca="false">IF(B921="","",IF(MOD(B921,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="B922" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C922" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D922" s="0" t="str">
         <f aca="false">IF(B922="","",IF(MOD(B922,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B923" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C923" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D923" s="0" t="str">
         <f aca="false">IF(B923="","",IF(MOD(B923,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -15392,32 +15410,23 @@
     </row>
     <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B924" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C924" s="0" t="s">
         <v>203</v>
       </c>
       <c r="D924" s="0" t="str">
         <f aca="false">IF(B924="","",IF(MOD(B924,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v>PSEUDO</v>
       </c>
     </row>
     <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A925" s="0" t="s">
-        <v>829</v>
-      </c>
-      <c r="B925" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C925" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D925" s="0" t="str">
         <f aca="false">IF(B925="","",IF(MOD(B925,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15455,10 +15464,10 @@
         <v>832</v>
       </c>
       <c r="B928" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C928" s="0" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="D928" s="0" t="str">
         <f aca="false">IF(B928="","",IF(MOD(B928,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -15586,20 +15595,29 @@
       </c>
     </row>
     <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="B937" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C937" s="0" t="s">
+        <v>203</v>
+      </c>
       <c r="D937" s="0" t="str">
         <f aca="false">IF(B937="","",IF(MOD(B937,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B938" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C938" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D938" s="0" t="str">
         <f aca="false">IF(B938="","",IF(MOD(B938,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -15608,13 +15626,13 @@
     </row>
     <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B939" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C939" s="0" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="D939" s="0" t="str">
         <f aca="false">IF(B939="","",IF(MOD(B939,2)=0,"ACTUAL","PSEUDO"))</f>
@@ -15622,18 +15640,9 @@
       </c>
     </row>
     <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A940" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="B940" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C940" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="D940" s="0" t="str">
         <f aca="false">IF(B940="","",IF(MOD(B940,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>ACTUAL</v>
+        <v/>
       </c>
     </row>
     <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15757,41 +15766,83 @@
       </c>
     </row>
     <row r="949" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A949" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="B949" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C949" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D949" s="0" t="str">
         <f aca="false">IF(B949="","",IF(MOD(B949,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="950" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A950" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="B950" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C950" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D950" s="0" t="str">
         <f aca="false">IF(B950="","",IF(MOD(B950,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="951" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A951" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="B951" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C951" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D951" s="0" t="str">
         <f aca="false">IF(B951="","",IF(MOD(B951,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v/>
+        <v>ACTUAL</v>
       </c>
     </row>
     <row r="952" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A952" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="B952" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C952" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="D952" s="0" t="str">
         <f aca="false">IF(B952="","",IF(MOD(B952,2)=0,"ACTUAL","PSEUDO"))</f>
-        <v>PSEUDO</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v/>
+      </c>
+    </row>
+    <row r="953" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D953" s="0" t="str">
+        <f aca="false">IF(B953="","",IF(MOD(B953,2)=0,"ACTUAL","PSEUDO"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="954" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D954" s="0" t="str">
+        <f aca="false">IF(B954="","",IF(MOD(B954,2)=0,"ACTUAL","PSEUDO"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="955" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A955" s="0" t="s">
+        <v>855</v>
+      </c>
+      <c r="B955" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C955" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D955" s="0" t="str">
+        <f aca="false">IF(B955="","",IF(MOD(B955,2)=0,"ACTUAL","PSEUDO"))</f>
+        <v>PSEUDO</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/conf/rush_rules_v3.xlsx
+++ b/conf/rush_rules_v3.xlsx
@@ -2686,8 +2686,8 @@
   </sheetPr>
   <dimension ref="A1:D955"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A236" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A256" activeCellId="0" sqref="A256"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A315" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A334" activeCellId="0" sqref="A334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
